--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4E8FC7C-F6B6-4266-90D6-6797EC126B7B}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE3B228-5572-4BD8-87F0-656728AB3AC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="1873">
   <si>
     <t>Imprint</t>
   </si>
@@ -5514,6 +5514,147 @@
   </si>
   <si>
     <t>https://onlinelibrary.wiley.com/journal/29979684</t>
+  </si>
+  <si>
+    <t>John Benjamin</t>
+  </si>
+  <si>
+    <t>2950-5798</t>
+  </si>
+  <si>
+    <t>2950-578X</t>
+  </si>
+  <si>
+    <t>Journal of Language and Pop Culture</t>
+  </si>
+  <si>
+    <t>http://www.jbe-platform.com/content/journals/29505798</t>
+  </si>
+  <si>
+    <t>Karger</t>
+  </si>
+  <si>
+    <t>2504-5288</t>
+  </si>
+  <si>
+    <t>Case Reports in Acute Medicine</t>
+  </si>
+  <si>
+    <t>www.karger.com/CRA</t>
+  </si>
+  <si>
+    <t>2296-9373</t>
+  </si>
+  <si>
+    <t>Case Reports in Orthopedic Research</t>
+  </si>
+  <si>
+    <t>www.karger.com/CIO</t>
+  </si>
+  <si>
+    <t>2673-1738</t>
+  </si>
+  <si>
+    <t>Dubai Diabetes and Endocrinology Journal</t>
+  </si>
+  <si>
+    <t>www.karger.com/DDE</t>
+  </si>
+  <si>
+    <t>2571-726X</t>
+  </si>
+  <si>
+    <t>2571-6522</t>
+  </si>
+  <si>
+    <t>Dubai Medical Journal</t>
+  </si>
+  <si>
+    <t>www.karger.com/DMJ</t>
+  </si>
+  <si>
+    <t>2296-3766</t>
+  </si>
+  <si>
+    <t>2296-3774</t>
+  </si>
+  <si>
+    <t>Gastrointestinal Tumors</t>
+  </si>
+  <si>
+    <t>www.karger.com/GAT</t>
+  </si>
+  <si>
+    <t>2813-9151</t>
+  </si>
+  <si>
+    <t>Endocrinology Insights</t>
+  </si>
+  <si>
+    <t>www.karger.com/ENI</t>
+  </si>
+  <si>
+    <t>2813-8996</t>
+  </si>
+  <si>
+    <t>Maternal and Children's Health</t>
+  </si>
+  <si>
+    <t>www.karger.com/MCH</t>
+  </si>
+  <si>
+    <t>2673-6136</t>
+  </si>
+  <si>
+    <t>Saudi Journal of Health Systems Research</t>
+  </si>
+  <si>
+    <t>www.karger.com/SJH</t>
+  </si>
+  <si>
+    <t>Mark Allen Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3049-5229 </t>
+  </si>
+  <si>
+    <t>Journal of Family and Child Health</t>
+  </si>
+  <si>
+    <t>https://www.magonlinelibrary.com/journal/jfch</t>
+  </si>
+  <si>
+    <t>2052-2908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Health Visiting </t>
+  </si>
+  <si>
+    <t>https://www.magonlinelibrary.com/journal/johv</t>
+  </si>
+  <si>
+    <t>Bort</t>
+  </si>
+  <si>
+    <t>1759-7390</t>
+  </si>
+  <si>
+    <t>British Journal of Hospital Medicine</t>
+  </si>
+  <si>
+    <t>https://www.magonlinelibrary.com/journal/hmed</t>
+  </si>
+  <si>
+    <t>2052-2924</t>
+  </si>
+  <si>
+    <t>Nurse Prescribing/Journal of Prescribing Practice</t>
+  </si>
+  <si>
+    <t>https://www.magonlinelibrary.com/journal/jprp</t>
+  </si>
+  <si>
+    <t>Namnkorr (Journal of Prescribing Practice)</t>
   </si>
 </sst>
 </file>
@@ -5555,7 +5696,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5569,8 +5721,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A44994-823F-4AF5-9FCD-6FC3467D7354}" name="Table1" displayName="Table1" ref="A1:H538" totalsRowShown="0">
-  <autoFilter ref="A1:H538" xr:uid="{05A44994-823F-4AF5-9FCD-6FC3467D7354}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A44994-823F-4AF5-9FCD-6FC3467D7354}" name="Table1" displayName="Table1" ref="A1:H551" totalsRowShown="0">
+  <autoFilter ref="A1:H551" xr:uid="{05A44994-823F-4AF5-9FCD-6FC3467D7354}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D02F7C0C-9BAC-47A9-9884-2CFB2A2EF004}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{68BCFC47-98D5-4390-9FAD-BBF2C97624B3}" name="ISSN Electronic"/>
@@ -5902,10 +6054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02620B0-8DF4-4F28-8717-5424F4A868FE}">
-  <dimension ref="A1:H538"/>
+  <dimension ref="A1:H551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18888,6 +19040,314 @@
         <v>15</v>
       </c>
     </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F539" t="s">
+        <v>26</v>
+      </c>
+      <c r="G539" t="s">
+        <v>20</v>
+      </c>
+      <c r="H539" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F540" t="s">
+        <v>34</v>
+      </c>
+      <c r="G540" t="s">
+        <v>478</v>
+      </c>
+      <c r="H540" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F541" t="s">
+        <v>34</v>
+      </c>
+      <c r="G541" t="s">
+        <v>478</v>
+      </c>
+      <c r="H541" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E542" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F542" t="s">
+        <v>34</v>
+      </c>
+      <c r="G542" t="s">
+        <v>478</v>
+      </c>
+      <c r="H542" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F543" t="s">
+        <v>34</v>
+      </c>
+      <c r="G543" t="s">
+        <v>478</v>
+      </c>
+      <c r="H543" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F544" t="s">
+        <v>34</v>
+      </c>
+      <c r="G544" t="s">
+        <v>478</v>
+      </c>
+      <c r="H544" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F545" t="s">
+        <v>34</v>
+      </c>
+      <c r="G545" t="s">
+        <v>478</v>
+      </c>
+      <c r="H545" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F546" t="s">
+        <v>34</v>
+      </c>
+      <c r="G546" t="s">
+        <v>478</v>
+      </c>
+      <c r="H546" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F547" t="s">
+        <v>34</v>
+      </c>
+      <c r="G547" t="s">
+        <v>478</v>
+      </c>
+      <c r="H547" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F548" t="s">
+        <v>26</v>
+      </c>
+      <c r="G548" t="s">
+        <v>20</v>
+      </c>
+      <c r="H548" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F549" t="s">
+        <v>26</v>
+      </c>
+      <c r="G549" t="s">
+        <v>20</v>
+      </c>
+      <c r="H549" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F550" t="s">
+        <v>26</v>
+      </c>
+      <c r="G550" t="s">
+        <v>20</v>
+      </c>
+      <c r="H550" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F551" t="s">
+        <v>26</v>
+      </c>
+      <c r="G551" t="s">
+        <v>20</v>
+      </c>
+      <c r="H551" t="s">
+        <v>1872</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:H76">
     <sortCondition ref="H36:H76"/>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE3B228-5572-4BD8-87F0-656728AB3AC0}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D52A2DA-6000-4F5C-B373-F32B83D7DD94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="1870">
   <si>
     <t>Imprint</t>
   </si>
@@ -1512,15 +1512,6 @@
   </si>
   <si>
     <t>Borttagen (felaktigt inkluderad tidigare, namnbyte år 2020)</t>
-  </si>
-  <si>
-    <t>2041-6539</t>
-  </si>
-  <si>
-    <t>Chemical Science</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1039/2041-6539/2010</t>
   </si>
   <si>
     <t>2635-098X</t>
@@ -5696,18 +5687,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5721,8 +5701,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A44994-823F-4AF5-9FCD-6FC3467D7354}" name="Table1" displayName="Table1" ref="A1:H551" totalsRowShown="0">
-  <autoFilter ref="A1:H551" xr:uid="{05A44994-823F-4AF5-9FCD-6FC3467D7354}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05A44994-823F-4AF5-9FCD-6FC3467D7354}" name="Table1" displayName="Table1" ref="A1:H550" totalsRowShown="0">
+  <autoFilter ref="A1:H550" xr:uid="{05A44994-823F-4AF5-9FCD-6FC3467D7354}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D02F7C0C-9BAC-47A9-9884-2CFB2A2EF004}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{68BCFC47-98D5-4390-9FAD-BBF2C97624B3}" name="ISSN Electronic"/>
@@ -6054,7 +6034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02620B0-8DF4-4F28-8717-5424F4A868FE}">
-  <dimension ref="A1:H551"/>
+  <dimension ref="A1:H550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -9809,42 +9789,45 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="B157" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="C157" t="s">
+        <v>545</v>
       </c>
       <c r="D157" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E157" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G157" t="s">
-        <v>478</v>
+        <v>20</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B158" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C158" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D158" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E158" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F158" t="s">
         <v>26</v>
@@ -9858,19 +9841,19 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B159" t="s">
-        <v>551</v>
+        <v>225</v>
       </c>
       <c r="C159" t="s">
+        <v>226</v>
+      </c>
+      <c r="D159" t="s">
+        <v>227</v>
+      </c>
+      <c r="E159" t="s">
         <v>552</v>
-      </c>
-      <c r="D159" t="s">
-        <v>553</v>
-      </c>
-      <c r="E159" t="s">
-        <v>554</v>
       </c>
       <c r="F159" t="s">
         <v>26</v>
@@ -9884,19 +9867,19 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B160" t="s">
-        <v>225</v>
+        <v>553</v>
       </c>
       <c r="C160" t="s">
-        <v>226</v>
+        <v>554</v>
       </c>
       <c r="D160" t="s">
-        <v>227</v>
+        <v>555</v>
       </c>
       <c r="E160" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F160" t="s">
         <v>26</v>
@@ -9910,19 +9893,19 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B161" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C161" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D161" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E161" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F161" t="s">
         <v>26</v>
@@ -9936,19 +9919,19 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B162" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C162" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D162" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E162" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F162" t="s">
         <v>26</v>
@@ -9962,22 +9945,22 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B163" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C163" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D163" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E163" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F163" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
         <v>20</v>
@@ -9988,12 +9971,9 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B164" t="s">
-        <v>568</v>
-      </c>
-      <c r="C164" t="s">
         <v>569</v>
       </c>
       <c r="D164" t="s">
@@ -10014,7 +9994,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B165" t="s">
         <v>572</v>
@@ -10037,7 +10017,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B166" t="s">
         <v>575</v>
@@ -10060,16 +10040,19 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B167" t="s">
         <v>578</v>
       </c>
+      <c r="C167" t="s">
+        <v>579</v>
+      </c>
       <c r="D167" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E167" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F167" t="s">
         <v>34</v>
@@ -10083,12 +10066,9 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B168" t="s">
-        <v>581</v>
-      </c>
-      <c r="C168" t="s">
         <v>582</v>
       </c>
       <c r="D168" t="s">
@@ -10109,7 +10089,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B169" t="s">
         <v>585</v>
@@ -10132,7 +10112,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B170" t="s">
         <v>588</v>
@@ -10155,16 +10135,19 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B171" t="s">
         <v>591</v>
       </c>
+      <c r="C171" t="s">
+        <v>592</v>
+      </c>
       <c r="D171" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E171" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F171" t="s">
         <v>34</v>
@@ -10178,20 +10161,14 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B172" t="s">
-        <v>594</v>
-      </c>
-      <c r="C172" t="s">
         <v>595</v>
       </c>
       <c r="D172" t="s">
         <v>596</v>
       </c>
-      <c r="E172" t="s">
-        <v>597</v>
-      </c>
       <c r="F172" t="s">
         <v>34</v>
       </c>
@@ -10204,12 +10181,15 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B173" t="s">
+        <v>597</v>
+      </c>
+      <c r="D173" t="s">
         <v>598</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>599</v>
       </c>
       <c r="F173" t="s">
@@ -10224,16 +10204,19 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B174" t="s">
         <v>600</v>
       </c>
+      <c r="C174" t="s">
+        <v>601</v>
+      </c>
       <c r="D174" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E174" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F174" t="s">
         <v>34</v>
@@ -10242,24 +10225,21 @@
         <v>20</v>
       </c>
       <c r="H174" t="s">
-        <v>43</v>
+        <v>604</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B175" t="s">
-        <v>603</v>
-      </c>
-      <c r="C175" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D175" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E175" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F175" t="s">
         <v>34</v>
@@ -10268,21 +10248,24 @@
         <v>20</v>
       </c>
       <c r="H175" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B176" t="s">
-        <v>608</v>
+        <v>609</v>
+      </c>
+      <c r="C176" t="s">
+        <v>610</v>
       </c>
       <c r="D176" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E176" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F176" t="s">
         <v>34</v>
@@ -10291,38 +10274,35 @@
         <v>20</v>
       </c>
       <c r="H176" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B177" t="s">
-        <v>612</v>
-      </c>
-      <c r="C177" t="s">
+        <v>614</v>
+      </c>
+      <c r="D177" t="s">
+        <v>615</v>
+      </c>
+      <c r="E177" t="s">
+        <v>616</v>
+      </c>
+      <c r="F177" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" t="s">
         <v>613</v>
-      </c>
-      <c r="D177" t="s">
-        <v>614</v>
-      </c>
-      <c r="E177" t="s">
-        <v>615</v>
-      </c>
-      <c r="F177" t="s">
-        <v>34</v>
-      </c>
-      <c r="G177" t="s">
-        <v>20</v>
-      </c>
-      <c r="H177" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B178" t="s">
         <v>617</v>
@@ -10340,40 +10320,40 @@
         <v>20</v>
       </c>
       <c r="H178" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B179" t="s">
         <v>620</v>
       </c>
+      <c r="C179" t="s">
+        <v>621</v>
+      </c>
       <c r="D179" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E179" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G179" t="s">
         <v>20</v>
       </c>
       <c r="H179" t="s">
-        <v>616</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B180" t="s">
-        <v>623</v>
-      </c>
-      <c r="C180" t="s">
         <v>624</v>
       </c>
       <c r="D180" t="s">
@@ -10394,7 +10374,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B181" t="s">
         <v>627</v>
@@ -10417,7 +10397,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B182" t="s">
         <v>630</v>
@@ -10440,16 +10420,19 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B183" t="s">
         <v>633</v>
       </c>
+      <c r="C183" t="s">
+        <v>634</v>
+      </c>
       <c r="D183" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E183" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F183" t="s">
         <v>26</v>
@@ -10463,19 +10446,19 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B184" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C184" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D184" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E184" t="s">
-        <v>639</v>
+        <v>564</v>
       </c>
       <c r="F184" t="s">
         <v>26</v>
@@ -10489,7 +10472,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B185" t="s">
         <v>640</v>
@@ -10501,7 +10484,7 @@
         <v>642</v>
       </c>
       <c r="E185" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="F185" t="s">
         <v>26</v>
@@ -10515,12 +10498,9 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B186" t="s">
-        <v>643</v>
-      </c>
-      <c r="C186" t="s">
         <v>644</v>
       </c>
       <c r="D186" t="s">
@@ -10541,16 +10521,19 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B187" t="s">
         <v>647</v>
       </c>
+      <c r="C187" t="s">
+        <v>648</v>
+      </c>
       <c r="D187" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E187" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F187" t="s">
         <v>26</v>
@@ -10564,19 +10547,19 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B188" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C188" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D188" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E188" t="s">
-        <v>653</v>
+        <v>560</v>
       </c>
       <c r="F188" t="s">
         <v>26</v>
@@ -10590,19 +10573,16 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B189" t="s">
         <v>654</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>655</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>656</v>
-      </c>
-      <c r="E189" t="s">
-        <v>563</v>
       </c>
       <c r="F189" t="s">
         <v>26</v>
@@ -10616,16 +10596,19 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B190" t="s">
         <v>657</v>
       </c>
+      <c r="C190" t="s">
+        <v>658</v>
+      </c>
       <c r="D190" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E190" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F190" t="s">
         <v>26</v>
@@ -10639,12 +10622,9 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B191" t="s">
-        <v>660</v>
-      </c>
-      <c r="C191" t="s">
         <v>661</v>
       </c>
       <c r="D191" t="s">
@@ -10665,16 +10645,19 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B192" t="s">
         <v>664</v>
       </c>
+      <c r="C192" t="s">
+        <v>665</v>
+      </c>
       <c r="D192" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E192" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F192" t="s">
         <v>26</v>
@@ -10688,22 +10671,22 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B193" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C193" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D193" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E193" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F193" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
         <v>20</v>
@@ -10714,19 +10697,19 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B194" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C194" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D194" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E194" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F194" t="s">
         <v>34</v>
@@ -10740,19 +10723,19 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B195" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C195" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D195" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E195" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F195" t="s">
         <v>34</v>
@@ -10766,19 +10749,19 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B196" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C196" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D196" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E196" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F196" t="s">
         <v>34</v>
@@ -10792,19 +10775,19 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B197" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C197" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D197" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E197" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F197" t="s">
         <v>34</v>
@@ -10818,19 +10801,19 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B198" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C198" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D198" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E198" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F198" t="s">
         <v>34</v>
@@ -10844,19 +10827,19 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B199" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C199" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D199" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E199" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F199" t="s">
         <v>34</v>
@@ -10870,19 +10853,19 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B200" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C200" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D200" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E200" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F200" t="s">
         <v>34</v>
@@ -10896,19 +10879,19 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B201" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C201" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D201" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E201" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F201" t="s">
         <v>34</v>
@@ -10922,12 +10905,9 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B202" t="s">
-        <v>703</v>
-      </c>
-      <c r="C202" t="s">
         <v>704</v>
       </c>
       <c r="D202" t="s">
@@ -10948,16 +10928,19 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B203" t="s">
         <v>707</v>
       </c>
+      <c r="C203" t="s">
+        <v>708</v>
+      </c>
       <c r="D203" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E203" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F203" t="s">
         <v>34</v>
@@ -10971,12 +10954,9 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B204" t="s">
-        <v>710</v>
-      </c>
-      <c r="C204" t="s">
         <v>711</v>
       </c>
       <c r="D204" t="s">
@@ -10997,9 +10977,9 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>546</v>
-      </c>
-      <c r="B205" t="s">
+        <v>543</v>
+      </c>
+      <c r="C205" t="s">
         <v>714</v>
       </c>
       <c r="D205" t="s">
@@ -11020,16 +11000,19 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>546</v>
+        <v>543</v>
+      </c>
+      <c r="B206" t="s">
+        <v>717</v>
       </c>
       <c r="C206" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D206" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E206" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F206" t="s">
         <v>34</v>
@@ -11043,19 +11026,19 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B207" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C207" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D207" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E207" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F207" t="s">
         <v>34</v>
@@ -11069,12 +11052,9 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B208" t="s">
-        <v>724</v>
-      </c>
-      <c r="C208" t="s">
         <v>725</v>
       </c>
       <c r="D208" t="s">
@@ -11095,7 +11075,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B209" t="s">
         <v>728</v>
@@ -11118,7 +11098,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B210" t="s">
         <v>731</v>
@@ -11141,7 +11121,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B211" t="s">
         <v>734</v>
@@ -11164,16 +11144,19 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B212" t="s">
         <v>737</v>
       </c>
+      <c r="C212" t="s">
+        <v>738</v>
+      </c>
       <c r="D212" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E212" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F212" t="s">
         <v>34</v>
@@ -11187,38 +11170,35 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>546</v>
+        <v>741</v>
       </c>
       <c r="B213" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C213" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D213" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E213" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G213" t="s">
         <v>20</v>
       </c>
       <c r="H213" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B214" t="s">
-        <v>745</v>
-      </c>
-      <c r="C214" t="s">
         <v>746</v>
       </c>
       <c r="D214" t="s">
@@ -11239,16 +11219,19 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B215" t="s">
         <v>749</v>
       </c>
+      <c r="C215" t="s">
+        <v>750</v>
+      </c>
       <c r="D215" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E215" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F215" t="s">
         <v>26</v>
@@ -11262,19 +11245,19 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B216" t="s">
-        <v>752</v>
+        <v>221</v>
       </c>
       <c r="C216" t="s">
+        <v>222</v>
+      </c>
+      <c r="D216" t="s">
+        <v>223</v>
+      </c>
+      <c r="E216" t="s">
         <v>753</v>
-      </c>
-      <c r="D216" t="s">
-        <v>754</v>
-      </c>
-      <c r="E216" t="s">
-        <v>755</v>
       </c>
       <c r="F216" t="s">
         <v>26</v>
@@ -11288,19 +11271,19 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B217" t="s">
-        <v>221</v>
+        <v>754</v>
       </c>
       <c r="C217" t="s">
-        <v>222</v>
+        <v>755</v>
       </c>
       <c r="D217" t="s">
-        <v>223</v>
+        <v>756</v>
       </c>
       <c r="E217" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F217" t="s">
         <v>26</v>
@@ -11314,19 +11297,19 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B218" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C218" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D218" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E218" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F218" t="s">
         <v>26</v>
@@ -11340,19 +11323,19 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B219" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C219" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D219" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E219" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F219" t="s">
         <v>26</v>
@@ -11366,19 +11349,19 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B220" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C220" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D220" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E220" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F220" t="s">
         <v>26</v>
@@ -11392,19 +11375,19 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B221" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C221" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D221" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E221" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F221" t="s">
         <v>26</v>
@@ -11418,19 +11401,19 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B222" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C222" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D222" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E222" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F222" t="s">
         <v>26</v>
@@ -11444,19 +11427,19 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B223" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C223" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D223" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E223" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F223" t="s">
         <v>26</v>
@@ -11470,19 +11453,19 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B224" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C224" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D224" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E224" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F224" t="s">
         <v>26</v>
@@ -11496,19 +11479,19 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B225" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C225" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D225" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E225" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F225" t="s">
         <v>26</v>
@@ -11522,19 +11505,19 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B226" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C226" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D226" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E226" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F226" t="s">
         <v>26</v>
@@ -11548,19 +11531,19 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B227" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C227" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D227" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E227" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F227" t="s">
         <v>26</v>
@@ -11574,19 +11557,16 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>744</v>
-      </c>
-      <c r="B228" t="s">
-        <v>797</v>
+        <v>741</v>
       </c>
       <c r="C228" t="s">
+        <v>237</v>
+      </c>
+      <c r="D228" t="s">
+        <v>238</v>
+      </c>
+      <c r="E228" t="s">
         <v>798</v>
-      </c>
-      <c r="D228" t="s">
-        <v>799</v>
-      </c>
-      <c r="E228" t="s">
-        <v>800</v>
       </c>
       <c r="F228" t="s">
         <v>26</v>
@@ -11600,16 +11580,19 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>744</v>
+        <v>741</v>
+      </c>
+      <c r="B229" t="s">
+        <v>799</v>
       </c>
       <c r="C229" t="s">
-        <v>237</v>
+        <v>800</v>
       </c>
       <c r="D229" t="s">
-        <v>238</v>
+        <v>801</v>
       </c>
       <c r="E229" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F229" t="s">
         <v>26</v>
@@ -11623,19 +11606,19 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B230" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C230" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D230" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E230" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F230" t="s">
         <v>26</v>
@@ -11649,19 +11632,19 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B231" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C231" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D231" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E231" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F231" t="s">
         <v>26</v>
@@ -11675,19 +11658,19 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B232" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C232" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D232" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E232" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F232" t="s">
         <v>26</v>
@@ -11701,12 +11684,9 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B233" t="s">
-        <v>814</v>
-      </c>
-      <c r="C233" t="s">
         <v>815</v>
       </c>
       <c r="D233" t="s">
@@ -11727,7 +11707,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B234" t="s">
         <v>818</v>
@@ -11750,19 +11730,19 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>744</v>
+        <v>821</v>
       </c>
       <c r="B235" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D235" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E235" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F235" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G235" t="s">
         <v>20</v>
@@ -11773,7 +11753,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B236" t="s">
         <v>825</v>
@@ -11796,7 +11776,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B237" t="s">
         <v>828</v>
@@ -11819,7 +11799,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B238" t="s">
         <v>831</v>
@@ -11842,7 +11822,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>824</v>
+        <v>741</v>
       </c>
       <c r="B239" t="s">
         <v>834</v>
@@ -11865,7 +11845,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B240" t="s">
         <v>837</v>
@@ -11888,7 +11868,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B241" t="s">
         <v>840</v>
@@ -11911,7 +11891,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B242" t="s">
         <v>843</v>
@@ -11934,7 +11914,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B243" t="s">
         <v>846</v>
@@ -11957,7 +11937,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B244" t="s">
         <v>849</v>
@@ -11980,7 +11960,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B245" t="s">
         <v>852</v>
@@ -12003,7 +11983,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B246" t="s">
         <v>855</v>
@@ -12026,7 +12006,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>744</v>
+        <v>821</v>
       </c>
       <c r="B247" t="s">
         <v>858</v>
@@ -12049,16 +12029,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>824</v>
+        <v>861</v>
       </c>
       <c r="B248" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D248" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E248" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F248" t="s">
         <v>34</v>
@@ -12072,42 +12052,45 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>864</v>
+        <v>741</v>
       </c>
       <c r="B249" t="s">
         <v>865</v>
       </c>
+      <c r="C249" t="s">
+        <v>866</v>
+      </c>
       <c r="D249" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E249" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G249" t="s">
         <v>20</v>
       </c>
       <c r="H249" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B250" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C250" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D250" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E250" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F250" t="s">
         <v>26</v>
@@ -12121,19 +12104,19 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B251" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C251" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D251" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E251" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F251" t="s">
         <v>26</v>
@@ -12147,19 +12130,19 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B252" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C252" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D252" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E252" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F252" t="s">
         <v>26</v>
@@ -12173,19 +12156,19 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B253" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C253" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D253" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E253" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F253" t="s">
         <v>26</v>
@@ -12199,19 +12182,19 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B254" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C254" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D254" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E254" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F254" t="s">
         <v>26</v>
@@ -12225,19 +12208,19 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B255" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C255" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D255" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E255" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F255" t="s">
         <v>26</v>
@@ -12251,19 +12234,19 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B256" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C256" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D256" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E256" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F256" t="s">
         <v>26</v>
@@ -12277,19 +12260,19 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B257" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C257" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D257" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E257" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F257" t="s">
         <v>26</v>
@@ -12303,19 +12286,19 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B258" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C258" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D258" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E258" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F258" t="s">
         <v>26</v>
@@ -12329,19 +12312,19 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B259" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C259" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D259" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E259" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F259" t="s">
         <v>26</v>
@@ -12355,12 +12338,9 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B260" t="s">
-        <v>908</v>
-      </c>
-      <c r="C260" t="s">
         <v>909</v>
       </c>
       <c r="D260" t="s">
@@ -12376,44 +12356,44 @@
         <v>20</v>
       </c>
       <c r="H260" t="s">
-        <v>63</v>
+        <v>912</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B261" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D261" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E261" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F261" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G261" t="s">
         <v>20</v>
       </c>
       <c r="H261" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>744</v>
+        <v>917</v>
       </c>
       <c r="B262" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D262" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E262" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F262" t="s">
         <v>34</v>
@@ -12422,44 +12402,47 @@
         <v>20</v>
       </c>
       <c r="H262" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>920</v>
+        <v>741</v>
       </c>
       <c r="B263" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D263" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E263" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F263" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G263" t="s">
         <v>20</v>
       </c>
       <c r="H263" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B264" t="s">
-        <v>925</v>
+        <v>926</v>
+      </c>
+      <c r="C264" t="s">
+        <v>927</v>
       </c>
       <c r="D264" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="E264" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F264" t="s">
         <v>26</v>
@@ -12468,24 +12451,21 @@
         <v>20</v>
       </c>
       <c r="H264" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B265" t="s">
-        <v>929</v>
-      </c>
-      <c r="C265" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D265" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E265" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F265" t="s">
         <v>26</v>
@@ -12494,21 +12474,24 @@
         <v>20</v>
       </c>
       <c r="H265" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B266" t="s">
-        <v>934</v>
+        <v>935</v>
+      </c>
+      <c r="C266" t="s">
+        <v>936</v>
       </c>
       <c r="D266" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E266" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="F266" t="s">
         <v>26</v>
@@ -12517,24 +12500,24 @@
         <v>20</v>
       </c>
       <c r="H266" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B267" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C267" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D267" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E267" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F267" t="s">
         <v>26</v>
@@ -12543,24 +12526,24 @@
         <v>20</v>
       </c>
       <c r="H267" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B268" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C268" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D268" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E268" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F268" t="s">
         <v>26</v>
@@ -12569,24 +12552,24 @@
         <v>20</v>
       </c>
       <c r="H268" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B269" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C269" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D269" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E269" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F269" t="s">
         <v>26</v>
@@ -12595,24 +12578,24 @@
         <v>20</v>
       </c>
       <c r="H269" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B270" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C270" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D270" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E270" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="F270" t="s">
         <v>26</v>
@@ -12621,24 +12604,21 @@
         <v>20</v>
       </c>
       <c r="H270" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B271" t="s">
-        <v>958</v>
-      </c>
-      <c r="C271" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D271" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E271" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F271" t="s">
         <v>26</v>
@@ -12647,21 +12627,21 @@
         <v>20</v>
       </c>
       <c r="H271" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B272" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D272" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E272" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F272" t="s">
         <v>26</v>
@@ -12670,12 +12650,12 @@
         <v>20</v>
       </c>
       <c r="H272" t="s">
-        <v>966</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B273" t="s">
         <v>967</v>
@@ -12698,7 +12678,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B274" t="s">
         <v>970</v>
@@ -12721,7 +12701,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B275" t="s">
         <v>973</v>
@@ -12744,16 +12724,19 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B276" t="s">
         <v>976</v>
       </c>
+      <c r="C276" t="s">
+        <v>977</v>
+      </c>
       <c r="D276" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E276" t="s">
-        <v>978</v>
+        <v>752</v>
       </c>
       <c r="F276" t="s">
         <v>26</v>
@@ -12767,7 +12750,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B277" t="s">
         <v>979</v>
@@ -12779,7 +12762,7 @@
         <v>981</v>
       </c>
       <c r="E277" t="s">
-        <v>755</v>
+        <v>982</v>
       </c>
       <c r="F277" t="s">
         <v>26</v>
@@ -12793,19 +12776,19 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B278" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C278" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D278" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E278" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F278" t="s">
         <v>26</v>
@@ -12819,19 +12802,19 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B279" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C279" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D279" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E279" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F279" t="s">
         <v>26</v>
@@ -12845,19 +12828,19 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B280" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C280" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D280" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E280" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F280" t="s">
         <v>26</v>
@@ -12871,19 +12854,19 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B281" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C281" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D281" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E281" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F281" t="s">
         <v>26</v>
@@ -12897,10 +12880,10 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B282" t="s">
-        <v>998</v>
+        <v>396</v>
       </c>
       <c r="C282" t="s">
         <v>999</v>
@@ -12923,12 +12906,9 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B283" t="s">
-        <v>396</v>
-      </c>
-      <c r="C283" t="s">
         <v>1002</v>
       </c>
       <c r="D283" t="s">
@@ -12949,16 +12929,19 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B284" t="s">
         <v>1005</v>
       </c>
+      <c r="C284" t="s">
+        <v>1006</v>
+      </c>
       <c r="D284" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E284" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F284" t="s">
         <v>26</v>
@@ -12972,19 +12955,19 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B285" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C285" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D285" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E285" t="s">
-        <v>1011</v>
+        <v>769</v>
       </c>
       <c r="F285" t="s">
         <v>26</v>
@@ -12998,7 +12981,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B286" t="s">
         <v>1012</v>
@@ -13010,7 +12993,7 @@
         <v>1014</v>
       </c>
       <c r="E286" t="s">
-        <v>772</v>
+        <v>1015</v>
       </c>
       <c r="F286" t="s">
         <v>26</v>
@@ -13024,19 +13007,19 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B287" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C287" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D287" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E287" t="s">
-        <v>1018</v>
+        <v>773</v>
       </c>
       <c r="F287" t="s">
         <v>26</v>
@@ -13050,19 +13033,19 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B288" t="s">
+        <v>393</v>
+      </c>
+      <c r="C288" t="s">
         <v>1019</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
+        <v>394</v>
+      </c>
+      <c r="E288" t="s">
         <v>1020</v>
-      </c>
-      <c r="D288" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E288" t="s">
-        <v>776</v>
       </c>
       <c r="F288" t="s">
         <v>26</v>
@@ -13076,16 +13059,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B289" t="s">
-        <v>393</v>
-      </c>
-      <c r="C289" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D289" t="s">
         <v>1022</v>
-      </c>
-      <c r="D289" t="s">
-        <v>394</v>
       </c>
       <c r="E289" t="s">
         <v>1023</v>
@@ -13102,16 +13082,19 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B290" t="s">
         <v>1024</v>
       </c>
+      <c r="C290" t="s">
+        <v>1025</v>
+      </c>
       <c r="D290" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E290" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F290" t="s">
         <v>26</v>
@@ -13125,19 +13108,19 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B291" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C291" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D291" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E291" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F291" t="s">
         <v>26</v>
@@ -13151,12 +13134,9 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B292" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C292" t="s">
         <v>1032</v>
       </c>
       <c r="D292" t="s">
@@ -13177,16 +13157,19 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B293" t="s">
         <v>1035</v>
       </c>
+      <c r="C293" t="s">
+        <v>1036</v>
+      </c>
       <c r="D293" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E293" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F293" t="s">
         <v>26</v>
@@ -13200,19 +13183,19 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B294" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C294" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D294" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E294" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F294" t="s">
         <v>26</v>
@@ -13226,19 +13209,19 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B295" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C295" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D295" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E295" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F295" t="s">
         <v>26</v>
@@ -13252,19 +13235,19 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B296" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C296" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D296" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E296" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F296" t="s">
         <v>26</v>
@@ -13278,19 +13261,19 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B297" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C297" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D297" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E297" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F297" t="s">
         <v>26</v>
@@ -13304,12 +13287,9 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>744</v>
+        <v>821</v>
       </c>
       <c r="B298" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C298" t="s">
         <v>1055</v>
       </c>
       <c r="D298" t="s">
@@ -13319,7 +13299,7 @@
         <v>1057</v>
       </c>
       <c r="F298" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G298" t="s">
         <v>20</v>
@@ -13330,7 +13310,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B299" t="s">
         <v>1058</v>
@@ -13353,7 +13333,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B300" t="s">
         <v>1061</v>
@@ -13376,7 +13356,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B301" t="s">
         <v>1064</v>
@@ -13399,7 +13379,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B302" t="s">
         <v>1067</v>
@@ -13408,7 +13388,7 @@
         <v>1068</v>
       </c>
       <c r="E302" t="s">
-        <v>1069</v>
+        <v>833</v>
       </c>
       <c r="F302" t="s">
         <v>34</v>
@@ -13422,16 +13402,16 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>824</v>
+        <v>741</v>
       </c>
       <c r="B303" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D303" t="s">
         <v>1070</v>
       </c>
-      <c r="D303" t="s">
+      <c r="E303" t="s">
         <v>1071</v>
-      </c>
-      <c r="E303" t="s">
-        <v>836</v>
       </c>
       <c r="F303" t="s">
         <v>34</v>
@@ -13445,7 +13425,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B304" t="s">
         <v>1072</v>
@@ -13468,7 +13448,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>744</v>
+        <v>821</v>
       </c>
       <c r="B305" t="s">
         <v>1075</v>
@@ -13491,7 +13471,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B306" t="s">
         <v>1078</v>
@@ -13500,7 +13480,7 @@
         <v>1079</v>
       </c>
       <c r="E306" t="s">
-        <v>1080</v>
+        <v>830</v>
       </c>
       <c r="F306" t="s">
         <v>34</v>
@@ -13514,16 +13494,16 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B307" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D307" t="s">
         <v>1081</v>
       </c>
-      <c r="D307" t="s">
+      <c r="E307" t="s">
         <v>1082</v>
-      </c>
-      <c r="E307" t="s">
-        <v>833</v>
       </c>
       <c r="F307" t="s">
         <v>34</v>
@@ -13537,7 +13517,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>824</v>
+        <v>741</v>
       </c>
       <c r="B308" t="s">
         <v>1083</v>
@@ -13560,7 +13540,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B309" t="s">
         <v>1086</v>
@@ -13583,7 +13563,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B310" t="s">
         <v>1089</v>
@@ -13606,7 +13586,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B311" t="s">
         <v>1092</v>
@@ -13629,7 +13609,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B312" t="s">
         <v>1095</v>
@@ -13652,7 +13632,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B313" t="s">
         <v>1098</v>
@@ -13675,7 +13655,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B314" t="s">
         <v>1101</v>
@@ -13698,7 +13678,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B315" t="s">
         <v>1104</v>
@@ -13721,7 +13701,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B316" t="s">
         <v>1107</v>
@@ -13744,7 +13724,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B317" t="s">
         <v>1110</v>
@@ -13767,7 +13747,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B318" t="s">
         <v>1113</v>
@@ -13776,7 +13756,7 @@
         <v>1114</v>
       </c>
       <c r="E318" t="s">
-        <v>1115</v>
+        <v>860</v>
       </c>
       <c r="F318" t="s">
         <v>34</v>
@@ -13790,16 +13770,16 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B319" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D319" t="s">
         <v>1116</v>
       </c>
-      <c r="D319" t="s">
+      <c r="E319" t="s">
         <v>1117</v>
-      </c>
-      <c r="E319" t="s">
-        <v>863</v>
       </c>
       <c r="F319" t="s">
         <v>34</v>
@@ -13813,7 +13793,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B320" t="s">
         <v>1118</v>
@@ -13836,7 +13816,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B321" t="s">
         <v>1121</v>
@@ -13859,7 +13839,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B322" t="s">
         <v>1124</v>
@@ -13882,7 +13862,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B323" t="s">
         <v>1127</v>
@@ -13905,7 +13885,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B324" t="s">
         <v>1130</v>
@@ -13928,7 +13908,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B325" t="s">
         <v>1133</v>
@@ -13951,7 +13931,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B326" t="s">
         <v>1136</v>
@@ -13974,7 +13954,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>744</v>
+        <v>821</v>
       </c>
       <c r="B327" t="s">
         <v>1139</v>
@@ -13997,7 +13977,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>824</v>
+        <v>741</v>
       </c>
       <c r="B328" t="s">
         <v>1142</v>
@@ -14020,7 +14000,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>744</v>
+        <v>821</v>
       </c>
       <c r="B329" t="s">
         <v>1145</v>
@@ -14043,7 +14023,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B330" t="s">
         <v>1148</v>
@@ -14066,7 +14046,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B331" t="s">
         <v>1151</v>
@@ -14089,7 +14069,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>824</v>
+        <v>741</v>
       </c>
       <c r="B332" t="s">
         <v>1154</v>
@@ -14112,7 +14092,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B333" t="s">
         <v>1157</v>
@@ -14135,7 +14115,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B334" t="s">
         <v>1160</v>
@@ -14144,7 +14124,7 @@
         <v>1161</v>
       </c>
       <c r="E334" t="s">
-        <v>1162</v>
+        <v>842</v>
       </c>
       <c r="F334" t="s">
         <v>34</v>
@@ -14158,16 +14138,16 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B335" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D335" t="s">
         <v>1163</v>
       </c>
-      <c r="D335" t="s">
+      <c r="E335" t="s">
         <v>1164</v>
-      </c>
-      <c r="E335" t="s">
-        <v>845</v>
       </c>
       <c r="F335" t="s">
         <v>34</v>
@@ -14181,7 +14161,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B336" t="s">
         <v>1165</v>
@@ -14204,7 +14184,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B337" t="s">
         <v>1168</v>
@@ -14227,7 +14207,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B338" t="s">
         <v>1171</v>
@@ -14236,7 +14216,7 @@
         <v>1172</v>
       </c>
       <c r="E338" t="s">
-        <v>1173</v>
+        <v>854</v>
       </c>
       <c r="F338" t="s">
         <v>34</v>
@@ -14250,16 +14230,16 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B339" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D339" t="s">
         <v>1174</v>
       </c>
-      <c r="D339" t="s">
+      <c r="E339" t="s">
         <v>1175</v>
-      </c>
-      <c r="E339" t="s">
-        <v>857</v>
       </c>
       <c r="F339" t="s">
         <v>34</v>
@@ -14273,7 +14253,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B340" t="s">
         <v>1176</v>
@@ -14296,7 +14276,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B341" t="s">
         <v>1179</v>
@@ -14319,7 +14299,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B342" t="s">
         <v>1182</v>
@@ -14342,7 +14322,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>744</v>
+        <v>861</v>
       </c>
       <c r="B343" t="s">
         <v>1185</v>
@@ -14365,7 +14345,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B344" t="s">
         <v>1188</v>
@@ -14388,7 +14368,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B345" t="s">
         <v>1191</v>
@@ -14411,7 +14391,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B346" t="s">
         <v>1194</v>
@@ -14434,7 +14414,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B347" t="s">
         <v>1197</v>
@@ -14457,7 +14437,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B348" t="s">
         <v>1200</v>
@@ -14480,7 +14460,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B349" t="s">
         <v>1203</v>
@@ -14503,7 +14483,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B350" t="s">
         <v>1206</v>
@@ -14526,7 +14506,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B351" t="s">
         <v>1209</v>
@@ -14549,7 +14529,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B352" t="s">
         <v>1212</v>
@@ -14572,7 +14552,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B353" t="s">
         <v>1215</v>
@@ -14595,7 +14575,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B354" t="s">
         <v>1218</v>
@@ -14618,7 +14598,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B355" t="s">
         <v>1221</v>
@@ -14641,7 +14621,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B356" t="s">
         <v>1224</v>
@@ -14650,7 +14630,7 @@
         <v>1225</v>
       </c>
       <c r="E356" t="s">
-        <v>1226</v>
+        <v>851</v>
       </c>
       <c r="F356" t="s">
         <v>34</v>
@@ -14664,16 +14644,16 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B357" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D357" t="s">
         <v>1227</v>
       </c>
-      <c r="D357" t="s">
+      <c r="E357" t="s">
         <v>1228</v>
-      </c>
-      <c r="E357" t="s">
-        <v>854</v>
       </c>
       <c r="F357" t="s">
         <v>34</v>
@@ -14687,7 +14667,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B358" t="s">
         <v>1229</v>
@@ -14710,7 +14690,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B359" t="s">
         <v>1232</v>
@@ -14733,7 +14713,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B360" t="s">
         <v>1235</v>
@@ -14756,7 +14736,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B361" t="s">
         <v>1238</v>
@@ -14779,7 +14759,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B362" t="s">
         <v>1241</v>
@@ -14802,7 +14782,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B363" t="s">
         <v>1244</v>
@@ -14825,7 +14805,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>864</v>
+        <v>821</v>
       </c>
       <c r="B364" t="s">
         <v>1247</v>
@@ -14848,7 +14828,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B365" t="s">
         <v>1250</v>
@@ -14871,7 +14851,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>824</v>
+        <v>741</v>
       </c>
       <c r="B366" t="s">
         <v>1253</v>
@@ -14894,7 +14874,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>744</v>
+        <v>821</v>
       </c>
       <c r="B367" t="s">
         <v>1256</v>
@@ -14917,7 +14897,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>824</v>
+        <v>741</v>
       </c>
       <c r="B368" t="s">
         <v>1259</v>
@@ -14940,7 +14920,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B369" t="s">
         <v>1262</v>
@@ -14963,7 +14943,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B370" t="s">
         <v>1265</v>
@@ -14986,7 +14966,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B371" t="s">
         <v>1268</v>
@@ -15009,7 +14989,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B372" t="s">
         <v>1271</v>
@@ -15032,45 +15012,48 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>744</v>
+        <v>1274</v>
       </c>
       <c r="B373" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D373" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E373" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F373" t="s">
         <v>34</v>
       </c>
       <c r="G373" t="s">
-        <v>20</v>
+        <v>1278</v>
       </c>
       <c r="H373" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B374" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F374" t="s">
+        <v>26</v>
+      </c>
+      <c r="G374" t="s">
         <v>1278</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E374" t="s">
-        <v>1280</v>
-      </c>
-      <c r="F374" t="s">
-        <v>34</v>
-      </c>
-      <c r="G374" t="s">
-        <v>1281</v>
       </c>
       <c r="H374" t="s">
         <v>43</v>
@@ -15078,12 +15061,9 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B375" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C375" t="s">
         <v>1283</v>
       </c>
       <c r="D375" t="s">
@@ -15093,10 +15073,10 @@
         <v>1285</v>
       </c>
       <c r="F375" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G375" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H375" t="s">
         <v>43</v>
@@ -15104,22 +15084,25 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B376" t="s">
         <v>1286</v>
       </c>
+      <c r="C376" t="s">
+        <v>1287</v>
+      </c>
       <c r="D376" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E376" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F376" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G376" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H376" t="s">
         <v>43</v>
@@ -15127,25 +15110,25 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B377" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C377" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D377" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E377" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F377" t="s">
         <v>26</v>
       </c>
       <c r="G377" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H377" t="s">
         <v>43</v>
@@ -15153,25 +15136,25 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B378" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C378" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D378" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E378" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F378" t="s">
         <v>26</v>
       </c>
       <c r="G378" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H378" t="s">
         <v>43</v>
@@ -15179,25 +15162,25 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B379" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C379" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D379" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E379" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F379" t="s">
         <v>26</v>
       </c>
       <c r="G379" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H379" t="s">
         <v>43</v>
@@ -15205,12 +15188,9 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B380" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C380" t="s">
         <v>1302</v>
       </c>
       <c r="D380" t="s">
@@ -15220,10 +15200,10 @@
         <v>1304</v>
       </c>
       <c r="F380" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G380" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H380" t="s">
         <v>43</v>
@@ -15231,56 +15211,56 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B381" t="s">
         <v>1305</v>
       </c>
+      <c r="C381" t="s">
+        <v>1306</v>
+      </c>
       <c r="D381" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E381" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="F381" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G381" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H381" t="s">
-        <v>43</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B382" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D382" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E382" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="F382" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G382" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H382" t="s">
-        <v>1312</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B383" t="s">
         <v>1313</v>
@@ -15295,7 +15275,7 @@
         <v>34</v>
       </c>
       <c r="G383" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H383" t="s">
         <v>15</v>
@@ -15303,22 +15283,25 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B384" t="s">
         <v>1316</v>
       </c>
+      <c r="C384" t="s">
+        <v>1317</v>
+      </c>
       <c r="D384" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E384" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F384" t="s">
         <v>34</v>
       </c>
       <c r="G384" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H384" t="s">
         <v>15</v>
@@ -15326,12 +15309,9 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B385" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C385" t="s">
         <v>1320</v>
       </c>
       <c r="D385" t="s">
@@ -15344,7 +15324,7 @@
         <v>34</v>
       </c>
       <c r="G385" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H385" t="s">
         <v>15</v>
@@ -15352,22 +15332,25 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B386" t="s">
         <v>1323</v>
       </c>
+      <c r="C386" t="s">
+        <v>1324</v>
+      </c>
       <c r="D386" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E386" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="F386" t="s">
         <v>34</v>
       </c>
       <c r="G386" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H386" t="s">
         <v>15</v>
@@ -15375,25 +15358,25 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B387" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C387" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D387" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E387" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="F387" t="s">
         <v>34</v>
       </c>
       <c r="G387" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H387" t="s">
         <v>15</v>
@@ -15401,25 +15384,25 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B388" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C388" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D388" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E388" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F388" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G388" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H388" t="s">
         <v>15</v>
@@ -15427,12 +15410,9 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B389" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C389" t="s">
         <v>1335</v>
       </c>
       <c r="D389" t="s">
@@ -15442,10 +15422,10 @@
         <v>1337</v>
       </c>
       <c r="F389" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G389" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H389" t="s">
         <v>15</v>
@@ -15453,7 +15433,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B390" t="s">
         <v>1338</v>
@@ -15468,7 +15448,7 @@
         <v>34</v>
       </c>
       <c r="G390" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H390" t="s">
         <v>15</v>
@@ -15476,7 +15456,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B391" t="s">
         <v>1341</v>
@@ -15491,7 +15471,7 @@
         <v>34</v>
       </c>
       <c r="G391" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H391" t="s">
         <v>15</v>
@@ -15499,7 +15479,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B392" t="s">
         <v>1344</v>
@@ -15514,7 +15494,7 @@
         <v>34</v>
       </c>
       <c r="G392" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H392" t="s">
         <v>15</v>
@@ -15522,22 +15502,25 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B393" t="s">
         <v>1347</v>
       </c>
+      <c r="C393" t="s">
+        <v>1348</v>
+      </c>
       <c r="D393" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="E393" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F393" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G393" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H393" t="s">
         <v>15</v>
@@ -15545,12 +15528,9 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B394" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C394" t="s">
         <v>1351</v>
       </c>
       <c r="D394" t="s">
@@ -15560,10 +15540,10 @@
         <v>1353</v>
       </c>
       <c r="F394" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G394" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H394" t="s">
         <v>15</v>
@@ -15571,7 +15551,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B395" t="s">
         <v>1354</v>
@@ -15583,10 +15563,10 @@
         <v>1356</v>
       </c>
       <c r="F395" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G395" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H395" t="s">
         <v>15</v>
@@ -15594,7 +15574,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B396" t="s">
         <v>1357</v>
@@ -15606,10 +15586,10 @@
         <v>1359</v>
       </c>
       <c r="F396" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G396" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H396" t="s">
         <v>15</v>
@@ -15617,22 +15597,25 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B397" t="s">
         <v>1360</v>
       </c>
+      <c r="C397" t="s">
+        <v>1361</v>
+      </c>
       <c r="D397" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E397" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="F397" t="s">
         <v>34</v>
       </c>
       <c r="G397" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H397" t="s">
         <v>15</v>
@@ -15640,12 +15623,9 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B398" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C398" t="s">
         <v>1364</v>
       </c>
       <c r="D398" t="s">
@@ -15658,7 +15638,7 @@
         <v>34</v>
       </c>
       <c r="G398" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H398" t="s">
         <v>15</v>
@@ -15666,7 +15646,7 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B399" t="s">
         <v>1367</v>
@@ -15681,7 +15661,7 @@
         <v>34</v>
       </c>
       <c r="G399" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H399" t="s">
         <v>15</v>
@@ -15689,7 +15669,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B400" t="s">
         <v>1370</v>
@@ -15704,7 +15684,7 @@
         <v>34</v>
       </c>
       <c r="G400" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H400" t="s">
         <v>15</v>
@@ -15712,22 +15692,25 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B401" t="s">
         <v>1373</v>
       </c>
+      <c r="C401" t="s">
+        <v>1374</v>
+      </c>
       <c r="D401" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E401" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="F401" t="s">
         <v>34</v>
       </c>
       <c r="G401" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H401" t="s">
         <v>15</v>
@@ -15735,12 +15718,9 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B402" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C402" t="s">
         <v>1377</v>
       </c>
       <c r="D402" t="s">
@@ -15750,10 +15730,10 @@
         <v>1379</v>
       </c>
       <c r="F402" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G402" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H402" t="s">
         <v>15</v>
@@ -15761,22 +15741,25 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B403" t="s">
         <v>1380</v>
       </c>
+      <c r="C403" t="s">
+        <v>1381</v>
+      </c>
       <c r="D403" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="E403" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F403" t="s">
         <v>26</v>
       </c>
       <c r="G403" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H403" t="s">
         <v>15</v>
@@ -15784,12 +15767,9 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B404" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C404" t="s">
         <v>1384</v>
       </c>
       <c r="D404" t="s">
@@ -15802,7 +15782,7 @@
         <v>26</v>
       </c>
       <c r="G404" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H404" t="s">
         <v>15</v>
@@ -15810,22 +15790,25 @@
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B405" t="s">
         <v>1387</v>
       </c>
+      <c r="C405" t="s">
+        <v>1388</v>
+      </c>
       <c r="D405" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="E405" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="F405" t="s">
         <v>26</v>
       </c>
       <c r="G405" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H405" t="s">
         <v>15</v>
@@ -15833,25 +15816,25 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B406" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C406" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D406" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E406" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="F406" t="s">
         <v>26</v>
       </c>
       <c r="G406" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H406" t="s">
         <v>15</v>
@@ -15859,12 +15842,9 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B407" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C407" t="s">
         <v>1395</v>
       </c>
       <c r="D407" t="s">
@@ -15874,10 +15854,10 @@
         <v>1397</v>
       </c>
       <c r="F407" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G407" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H407" t="s">
         <v>15</v>
@@ -15885,7 +15865,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B408" t="s">
         <v>1398</v>
@@ -15900,7 +15880,7 @@
         <v>34</v>
       </c>
       <c r="G408" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H408" t="s">
         <v>15</v>
@@ -15908,22 +15888,25 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B409" t="s">
         <v>1401</v>
       </c>
+      <c r="C409" t="s">
+        <v>1402</v>
+      </c>
       <c r="D409" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="E409" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="F409" t="s">
         <v>34</v>
       </c>
       <c r="G409" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H409" t="s">
         <v>15</v>
@@ -15931,12 +15914,9 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B410" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C410" t="s">
         <v>1405</v>
       </c>
       <c r="D410" t="s">
@@ -15946,10 +15926,10 @@
         <v>1407</v>
       </c>
       <c r="F410" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G410" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H410" t="s">
         <v>15</v>
@@ -15957,22 +15937,25 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B411" t="s">
         <v>1408</v>
       </c>
+      <c r="C411" t="s">
+        <v>1409</v>
+      </c>
       <c r="D411" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="E411" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="F411" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G411" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H411" t="s">
         <v>15</v>
@@ -15980,25 +15963,25 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B412" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C412" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D412" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E412" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="F412" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G412" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H412" t="s">
         <v>15</v>
@@ -16006,12 +15989,9 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B413" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C413" t="s">
         <v>1416</v>
       </c>
       <c r="D413" t="s">
@@ -16021,10 +16001,10 @@
         <v>1418</v>
       </c>
       <c r="F413" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G413" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H413" t="s">
         <v>15</v>
@@ -16032,22 +16012,25 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B414" t="s">
         <v>1419</v>
       </c>
+      <c r="C414" t="s">
+        <v>1420</v>
+      </c>
       <c r="D414" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E414" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="F414" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G414" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H414" t="s">
         <v>15</v>
@@ -16055,25 +16038,25 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B415" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C415" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D415" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="E415" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="F415" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G415" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H415" t="s">
         <v>15</v>
@@ -16081,25 +16064,25 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B416" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C416" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D416" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E416" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="F416" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G416" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H416" t="s">
         <v>15</v>
@@ -16107,12 +16090,9 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B417" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C417" t="s">
         <v>1431</v>
       </c>
       <c r="D417" t="s">
@@ -16125,7 +16105,7 @@
         <v>26</v>
       </c>
       <c r="G417" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H417" t="s">
         <v>15</v>
@@ -16133,7 +16113,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B418" t="s">
         <v>1434</v>
@@ -16145,10 +16125,10 @@
         <v>1436</v>
       </c>
       <c r="F418" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G418" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H418" t="s">
         <v>15</v>
@@ -16156,7 +16136,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B419" t="s">
         <v>1437</v>
@@ -16168,10 +16148,10 @@
         <v>1439</v>
       </c>
       <c r="F419" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G419" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H419" t="s">
         <v>15</v>
@@ -16179,22 +16159,25 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B420" t="s">
         <v>1440</v>
       </c>
+      <c r="C420" t="s">
+        <v>1441</v>
+      </c>
       <c r="D420" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E420" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="F420" t="s">
         <v>26</v>
       </c>
       <c r="G420" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H420" t="s">
         <v>15</v>
@@ -16202,25 +16185,25 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B421" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C421" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D421" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E421" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="F421" t="s">
         <v>26</v>
       </c>
       <c r="G421" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H421" t="s">
         <v>15</v>
@@ -16228,10 +16211,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1447</v>
+        <v>1274</v>
       </c>
       <c r="C422" t="s">
         <v>1448</v>
@@ -16246,73 +16226,76 @@
         <v>26</v>
       </c>
       <c r="G422" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H422" t="s">
-        <v>15</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1277</v>
+        <v>1274</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1452</v>
       </c>
       <c r="C423" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D423" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="E423" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="F423" t="s">
         <v>26</v>
       </c>
       <c r="G423" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="H423" t="s">
-        <v>1454</v>
+        <v>63</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1277</v>
+        <v>1456</v>
       </c>
       <c r="B424" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C424" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D424" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E424" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="F424" t="s">
         <v>26</v>
       </c>
       <c r="G424" t="s">
-        <v>1281</v>
+        <v>386</v>
       </c>
       <c r="H424" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B425" t="s">
         <v>1460</v>
       </c>
+      <c r="C425" t="s">
+        <v>1461</v>
+      </c>
       <c r="D425" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E425" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="F425" t="s">
         <v>26</v>
@@ -16326,22 +16309,19 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="B426" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C426" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D426" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E426" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="F426" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G426" t="s">
         <v>386</v>
@@ -16352,7 +16332,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B427" t="s">
         <v>1468</v>
@@ -16375,7 +16355,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B428" t="s">
         <v>1471</v>
@@ -16398,7 +16378,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B429" t="s">
         <v>1474</v>
@@ -16421,7 +16401,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B430" t="s">
         <v>1477</v>
@@ -16444,19 +16424,22 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="B431" t="s">
         <v>1480</v>
       </c>
+      <c r="C431" t="s">
+        <v>1481</v>
+      </c>
       <c r="D431" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E431" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="F431" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G431" t="s">
         <v>386</v>
@@ -16467,12 +16450,9 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="B432" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C432" t="s">
         <v>1484</v>
       </c>
       <c r="D432" t="s">
@@ -16482,7 +16462,7 @@
         <v>1486</v>
       </c>
       <c r="F432" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G432" t="s">
         <v>386</v>
@@ -16493,7 +16473,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B433" t="s">
         <v>1487</v>
@@ -16516,7 +16496,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B434" t="s">
         <v>1490</v>
@@ -16539,7 +16519,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B435" t="s">
         <v>1493</v>
@@ -16562,7 +16542,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B436" t="s">
         <v>1496</v>
@@ -16585,7 +16565,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B437" t="s">
         <v>1499</v>
@@ -16608,7 +16588,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B438" t="s">
         <v>1502</v>
@@ -16631,7 +16611,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B439" t="s">
         <v>1505</v>
@@ -16654,7 +16634,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="B440" t="s">
         <v>1508</v>
@@ -16677,7 +16657,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="B441" t="s">
         <v>1511</v>
@@ -16700,7 +16680,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="B442" t="s">
         <v>1514</v>
@@ -16723,7 +16703,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="B443" t="s">
         <v>1517</v>
@@ -16746,7 +16726,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B444" t="s">
         <v>1520</v>
@@ -16769,7 +16749,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B445" t="s">
         <v>1523</v>
@@ -16792,7 +16772,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B446" t="s">
         <v>1526</v>
@@ -16815,7 +16795,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B447" t="s">
         <v>1529</v>
@@ -16838,7 +16818,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B448" t="s">
         <v>1532</v>
@@ -16861,7 +16841,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B449" t="s">
         <v>1535</v>
@@ -16884,7 +16864,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B450" t="s">
         <v>1538</v>
@@ -16907,7 +16887,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B451" t="s">
         <v>1541</v>
@@ -16930,7 +16910,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="B452" t="s">
         <v>1544</v>
@@ -16953,7 +16933,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B453" t="s">
         <v>1547</v>
@@ -16976,7 +16956,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="B454" t="s">
         <v>1550</v>
@@ -16999,7 +16979,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="B455" t="s">
         <v>1553</v>
@@ -17022,7 +17002,7 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="B456" t="s">
         <v>1556</v>
@@ -17045,7 +17025,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B457" t="s">
         <v>1559</v>
@@ -17068,7 +17048,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B458" t="s">
         <v>1562</v>
@@ -17091,7 +17071,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B459" t="s">
         <v>1565</v>
@@ -17114,7 +17094,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="B460" t="s">
         <v>1568</v>
@@ -17137,7 +17117,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="B461" t="s">
         <v>1571</v>
@@ -17160,7 +17140,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B462" t="s">
         <v>1574</v>
@@ -17183,7 +17163,7 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B463" t="s">
         <v>1577</v>
@@ -17206,7 +17186,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B464" t="s">
         <v>1580</v>
@@ -17229,7 +17209,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B465" t="s">
         <v>1583</v>
@@ -17252,7 +17232,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="B466" t="s">
         <v>1586</v>
@@ -17267,7 +17247,7 @@
         <v>34</v>
       </c>
       <c r="G466" t="s">
-        <v>386</v>
+        <v>1589</v>
       </c>
       <c r="H466" t="s">
         <v>43</v>
@@ -17275,22 +17255,22 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="B467" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D467" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E467" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="F467" t="s">
         <v>34</v>
       </c>
       <c r="G467" t="s">
-        <v>1592</v>
+        <v>386</v>
       </c>
       <c r="H467" t="s">
         <v>43</v>
@@ -17298,7 +17278,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B468" t="s">
         <v>1593</v>
@@ -17321,7 +17301,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B469" t="s">
         <v>1596</v>
@@ -17344,7 +17324,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B470" t="s">
         <v>1599</v>
@@ -17367,7 +17347,7 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="B471" t="s">
         <v>1602</v>
@@ -17390,7 +17370,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="B472" t="s">
         <v>1605</v>
@@ -17413,7 +17393,7 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B473" t="s">
         <v>1608</v>
@@ -17436,7 +17416,7 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B474" t="s">
         <v>1611</v>
@@ -17459,7 +17439,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B475" t="s">
         <v>1614</v>
@@ -17482,7 +17462,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B476" t="s">
         <v>1617</v>
@@ -17505,7 +17485,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B477" t="s">
         <v>1620</v>
@@ -17528,7 +17508,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B478" t="s">
         <v>1623</v>
@@ -17551,7 +17531,7 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B479" t="s">
         <v>1626</v>
@@ -17574,7 +17554,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B480" t="s">
         <v>1629</v>
@@ -17597,7 +17577,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B481" t="s">
         <v>1632</v>
@@ -17620,7 +17600,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B482" t="s">
         <v>1635</v>
@@ -17643,7 +17623,7 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B483" t="s">
         <v>1638</v>
@@ -17666,19 +17646,22 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="B484" t="s">
+        <v>420</v>
+      </c>
+      <c r="C484" t="s">
+        <v>421</v>
+      </c>
+      <c r="D484" t="s">
+        <v>422</v>
+      </c>
+      <c r="E484" t="s">
         <v>1641</v>
       </c>
-      <c r="D484" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E484" t="s">
-        <v>1643</v>
-      </c>
       <c r="F484" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G484" t="s">
         <v>386</v>
@@ -17689,19 +17672,19 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B485" t="s">
-        <v>420</v>
+        <v>1642</v>
       </c>
       <c r="C485" t="s">
-        <v>421</v>
+        <v>1643</v>
       </c>
       <c r="D485" t="s">
-        <v>422</v>
+        <v>1644</v>
       </c>
       <c r="E485" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="F485" t="s">
         <v>26</v>
@@ -17715,19 +17698,19 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B486" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C486" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="D486" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="E486" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="F486" t="s">
         <v>26</v>
@@ -17741,19 +17724,19 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B487" t="s">
-        <v>1649</v>
+        <v>461</v>
       </c>
       <c r="C487" t="s">
+        <v>462</v>
+      </c>
+      <c r="D487" t="s">
+        <v>463</v>
+      </c>
+      <c r="E487" t="s">
         <v>1650</v>
-      </c>
-      <c r="D487" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E487" t="s">
-        <v>1652</v>
       </c>
       <c r="F487" t="s">
         <v>26</v>
@@ -17767,19 +17750,19 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B488" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="C488" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="D488" t="s">
-        <v>463</v>
+        <v>1651</v>
       </c>
       <c r="E488" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="F488" t="s">
         <v>26</v>
@@ -17793,19 +17776,19 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B489" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C489" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D489" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E489" t="s">
         <v>1654</v>
-      </c>
-      <c r="E489" t="s">
-        <v>1655</v>
       </c>
       <c r="F489" t="s">
         <v>26</v>
@@ -17819,19 +17802,19 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B490" t="s">
-        <v>431</v>
+        <v>1655</v>
       </c>
       <c r="C490" t="s">
-        <v>432</v>
+        <v>1656</v>
       </c>
       <c r="D490" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="E490" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="F490" t="s">
         <v>26</v>
@@ -17845,19 +17828,19 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B491" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C491" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D491" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="E491" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="F491" t="s">
         <v>26</v>
@@ -17871,19 +17854,19 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B492" t="s">
-        <v>1662</v>
+        <v>435</v>
       </c>
       <c r="C492" t="s">
+        <v>436</v>
+      </c>
+      <c r="D492" t="s">
         <v>1663</v>
       </c>
-      <c r="D492" t="s">
+      <c r="E492" t="s">
         <v>1664</v>
-      </c>
-      <c r="E492" t="s">
-        <v>1665</v>
       </c>
       <c r="F492" t="s">
         <v>26</v>
@@ -17897,19 +17880,19 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B493" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C493" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="D493" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E493" t="s">
         <v>1666</v>
-      </c>
-      <c r="E493" t="s">
-        <v>1667</v>
       </c>
       <c r="F493" t="s">
         <v>26</v>
@@ -17923,19 +17906,19 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B494" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C494" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D494" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E494" t="s">
         <v>1668</v>
-      </c>
-      <c r="E494" t="s">
-        <v>1669</v>
       </c>
       <c r="F494" t="s">
         <v>26</v>
@@ -17949,19 +17932,19 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B495" t="s">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="C495" t="s">
-        <v>451</v>
+        <v>263</v>
       </c>
       <c r="D495" t="s">
-        <v>1670</v>
+        <v>264</v>
       </c>
       <c r="E495" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F495" t="s">
         <v>26</v>
@@ -17975,19 +17958,19 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B496" t="s">
-        <v>262</v>
+        <v>1670</v>
       </c>
       <c r="C496" t="s">
-        <v>263</v>
+        <v>1671</v>
       </c>
       <c r="D496" t="s">
-        <v>264</v>
+        <v>1672</v>
       </c>
       <c r="E496" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F496" t="s">
         <v>26</v>
@@ -18001,19 +17984,19 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B497" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C497" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="D497" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="E497" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="F497" t="s">
         <v>26</v>
@@ -18027,19 +18010,19 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B498" t="s">
-        <v>1677</v>
+        <v>457</v>
       </c>
       <c r="C498" t="s">
+        <v>458</v>
+      </c>
+      <c r="D498" t="s">
         <v>1678</v>
       </c>
-      <c r="D498" t="s">
+      <c r="E498" t="s">
         <v>1679</v>
-      </c>
-      <c r="E498" t="s">
-        <v>1680</v>
       </c>
       <c r="F498" t="s">
         <v>26</v>
@@ -18053,19 +18036,19 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B499" t="s">
-        <v>457</v>
+        <v>1680</v>
       </c>
       <c r="C499" t="s">
-        <v>458</v>
+        <v>1681</v>
       </c>
       <c r="D499" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E499" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="F499" t="s">
         <v>26</v>
@@ -18074,24 +18057,24 @@
         <v>386</v>
       </c>
       <c r="H499" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B500" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C500" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="D500" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="E500" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="F500" t="s">
         <v>26</v>
@@ -18105,19 +18088,19 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B501" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C501" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="D501" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="E501" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="F501" t="s">
         <v>26</v>
@@ -18131,19 +18114,19 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B502" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C502" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="D502" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="E502" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="F502" t="s">
         <v>26</v>
@@ -18152,24 +18135,24 @@
         <v>386</v>
       </c>
       <c r="H502" t="s">
-        <v>63</v>
+        <v>912</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B503" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C503" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="D503" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="E503" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="F503" t="s">
         <v>26</v>
@@ -18178,17 +18161,14 @@
         <v>386</v>
       </c>
       <c r="H503" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B504" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C504" t="s">
         <v>1700</v>
       </c>
       <c r="D504" t="s">
@@ -18198,76 +18178,79 @@
         <v>1702</v>
       </c>
       <c r="F504" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G504" t="s">
-        <v>386</v>
+        <v>1703</v>
       </c>
       <c r="H504" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B505" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D505" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="E505" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="F505" t="s">
         <v>34</v>
       </c>
       <c r="G505" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H505" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B506" t="s">
-        <v>1707</v>
+        <v>1708</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1709</v>
       </c>
       <c r="D506" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="E506" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="F506" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G506" t="s">
-        <v>1710</v>
+        <v>386</v>
       </c>
       <c r="H506" t="s">
-        <v>915</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B507" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C507" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="D507" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="E507" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="F507" t="s">
         <v>26</v>
@@ -18276,24 +18259,24 @@
         <v>386</v>
       </c>
       <c r="H507" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B508" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C508" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="D508" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E508" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="F508" t="s">
         <v>26</v>
@@ -18302,24 +18285,24 @@
         <v>386</v>
       </c>
       <c r="H508" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B509" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C509" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D509" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="E509" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="F509" t="s">
         <v>26</v>
@@ -18328,24 +18311,24 @@
         <v>386</v>
       </c>
       <c r="H509" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B510" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C510" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D510" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="E510" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="F510" t="s">
         <v>26</v>
@@ -18354,24 +18337,24 @@
         <v>386</v>
       </c>
       <c r="H510" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B511" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C511" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D511" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E511" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="F511" t="s">
         <v>26</v>
@@ -18380,24 +18363,24 @@
         <v>386</v>
       </c>
       <c r="H511" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B512" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C512" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D512" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="E512" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="F512" t="s">
         <v>26</v>
@@ -18406,17 +18389,14 @@
         <v>386</v>
       </c>
       <c r="H512" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B513" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C513" t="s">
         <v>1736</v>
       </c>
       <c r="D513" t="s">
@@ -18432,21 +18412,24 @@
         <v>386</v>
       </c>
       <c r="H513" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B514" t="s">
         <v>1739</v>
       </c>
+      <c r="C514" t="s">
+        <v>1740</v>
+      </c>
       <c r="D514" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="E514" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F514" t="s">
         <v>26</v>
@@ -18455,24 +18438,24 @@
         <v>386</v>
       </c>
       <c r="H514" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B515" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C515" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="D515" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="E515" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="F515" t="s">
         <v>26</v>
@@ -18481,24 +18464,24 @@
         <v>386</v>
       </c>
       <c r="H515" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B516" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C516" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D516" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="E516" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="F516" t="s">
         <v>26</v>
@@ -18507,18 +18490,18 @@
         <v>386</v>
       </c>
       <c r="H516" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B517" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C517" t="s">
-        <v>1751</v>
+        <v>1681</v>
       </c>
       <c r="D517" t="s">
         <v>1752</v>
@@ -18533,24 +18516,24 @@
         <v>386</v>
       </c>
       <c r="H517" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B518" t="s">
         <v>1754</v>
       </c>
       <c r="C518" t="s">
-        <v>1684</v>
+        <v>1755</v>
       </c>
       <c r="D518" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="E518" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="F518" t="s">
         <v>26</v>
@@ -18559,17 +18542,14 @@
         <v>386</v>
       </c>
       <c r="H518" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B519" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C519" t="s">
         <v>1758</v>
       </c>
       <c r="D519" t="s">
@@ -18579,18 +18559,18 @@
         <v>1760</v>
       </c>
       <c r="F519" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G519" t="s">
         <v>386</v>
       </c>
       <c r="H519" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B520" t="s">
         <v>1761</v>
@@ -18602,33 +18582,33 @@
         <v>1763</v>
       </c>
       <c r="F520" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G520" t="s">
-        <v>386</v>
+        <v>1764</v>
       </c>
       <c r="H520" t="s">
-        <v>1312</v>
+        <v>15</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B521" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="D521" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="E521" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="F521" t="s">
         <v>26</v>
       </c>
       <c r="G521" t="s">
-        <v>1767</v>
+        <v>386</v>
       </c>
       <c r="H521" t="s">
         <v>15</v>
@@ -18636,7 +18616,7 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B522" t="s">
         <v>1768</v>
@@ -18648,10 +18628,10 @@
         <v>1770</v>
       </c>
       <c r="F522" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G522" t="s">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="H522" t="s">
         <v>15</v>
@@ -18659,7 +18639,7 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B523" t="s">
         <v>1771</v>
@@ -18682,7 +18662,7 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B524" t="s">
         <v>1774</v>
@@ -18705,22 +18685,25 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B525" t="s">
         <v>1777</v>
       </c>
+      <c r="C525" t="s">
+        <v>1778</v>
+      </c>
       <c r="D525" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="E525" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="F525" t="s">
         <v>34</v>
       </c>
       <c r="G525" t="s">
-        <v>20</v>
+        <v>1781</v>
       </c>
       <c r="H525" t="s">
         <v>15</v>
@@ -18728,25 +18711,22 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B526" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="D526" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="E526" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="F526" t="s">
         <v>34</v>
       </c>
       <c r="G526" t="s">
-        <v>1784</v>
+        <v>386</v>
       </c>
       <c r="H526" t="s">
         <v>15</v>
@@ -18754,7 +18734,7 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B527" t="s">
         <v>1785</v>
@@ -18777,7 +18757,7 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B528" t="s">
         <v>1788</v>
@@ -18800,16 +18780,19 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B529" t="s">
         <v>1791</v>
       </c>
+      <c r="C529" t="s">
+        <v>1792</v>
+      </c>
       <c r="D529" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E529" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="F529" t="s">
         <v>34</v>
@@ -18823,25 +18806,25 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B530" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C530" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="D530" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="E530" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="F530" t="s">
         <v>34</v>
       </c>
       <c r="G530" t="s">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="H530" t="s">
         <v>15</v>
@@ -18849,19 +18832,19 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B531" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C531" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D531" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="E531" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="F531" t="s">
         <v>34</v>
@@ -18875,12 +18858,9 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B532" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C532" t="s">
         <v>1803</v>
       </c>
       <c r="D532" t="s">
@@ -18901,7 +18881,7 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B533" t="s">
         <v>1806</v>
@@ -18916,7 +18896,7 @@
         <v>34</v>
       </c>
       <c r="G533" t="s">
-        <v>20</v>
+        <v>1278</v>
       </c>
       <c r="H533" t="s">
         <v>15</v>
@@ -18924,7 +18904,7 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B534" t="s">
         <v>1809</v>
@@ -18939,7 +18919,7 @@
         <v>34</v>
       </c>
       <c r="G534" t="s">
-        <v>1281</v>
+        <v>386</v>
       </c>
       <c r="H534" t="s">
         <v>15</v>
@@ -18947,22 +18927,25 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B535" t="s">
         <v>1812</v>
       </c>
+      <c r="C535" t="s">
+        <v>1813</v>
+      </c>
       <c r="D535" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="E535" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="F535" t="s">
         <v>34</v>
       </c>
       <c r="G535" t="s">
-        <v>386</v>
+        <v>1816</v>
       </c>
       <c r="H535" t="s">
         <v>15</v>
@@ -18970,25 +18953,22 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B536" t="s">
-        <v>1815</v>
-      </c>
-      <c r="C536" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F536" t="s">
+        <v>34</v>
+      </c>
+      <c r="G536" t="s">
         <v>1816</v>
-      </c>
-      <c r="D536" t="s">
-        <v>1817</v>
-      </c>
-      <c r="E536" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F536" t="s">
-        <v>34</v>
-      </c>
-      <c r="G536" t="s">
-        <v>1819</v>
       </c>
       <c r="H536" t="s">
         <v>15</v>
@@ -18996,7 +18976,7 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B537" t="s">
         <v>1820</v>
@@ -19011,7 +18991,7 @@
         <v>34</v>
       </c>
       <c r="G537" t="s">
-        <v>1819</v>
+        <v>386</v>
       </c>
       <c r="H537" t="s">
         <v>15</v>
@@ -19019,22 +18999,25 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1459</v>
+        <v>1823</v>
       </c>
       <c r="B538" t="s">
-        <v>1823</v>
+        <v>1824</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1825</v>
       </c>
       <c r="D538" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="E538" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="F538" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G538" t="s">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="H538" t="s">
         <v>15</v>
@@ -19042,33 +19025,30 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B539" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C539" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="D539" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="E539" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="F539" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G539" t="s">
-        <v>20</v>
+        <v>478</v>
       </c>
       <c r="H539" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B540" t="s">
         <v>1832</v>
@@ -19091,7 +19071,7 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B541" t="s">
         <v>1835</v>
@@ -19114,16 +19094,19 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B542" t="s">
         <v>1838</v>
       </c>
+      <c r="C542" t="s">
+        <v>1839</v>
+      </c>
       <c r="D542" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E542" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="F542" t="s">
         <v>34</v>
@@ -19137,19 +19120,19 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B543" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="C543" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D543" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="E543" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="F543" t="s">
         <v>34</v>
@@ -19163,12 +19146,9 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B544" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C544" t="s">
         <v>1846</v>
       </c>
       <c r="D544" t="s">
@@ -19184,12 +19164,12 @@
         <v>478</v>
       </c>
       <c r="H544" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B545" t="s">
         <v>1849</v>
@@ -19212,7 +19192,7 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B546" t="s">
         <v>1852</v>
@@ -19235,22 +19215,22 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1831</v>
+        <v>1855</v>
       </c>
       <c r="B547" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D547" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E547" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="F547" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G547" t="s">
-        <v>478</v>
+        <v>20</v>
       </c>
       <c r="H547" t="s">
         <v>15</v>
@@ -19258,7 +19238,7 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="B548" t="s">
         <v>1859</v>
@@ -19276,21 +19256,21 @@
         <v>20</v>
       </c>
       <c r="H548" t="s">
-        <v>15</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="B549" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="D549" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="E549" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="F549" t="s">
         <v>26</v>
@@ -19299,12 +19279,12 @@
         <v>20</v>
       </c>
       <c r="H549" t="s">
-        <v>1865</v>
+        <v>63</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="B550" t="s">
         <v>1866</v>
@@ -19322,30 +19302,7 @@
         <v>20</v>
       </c>
       <c r="H550" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>1858</v>
-      </c>
-      <c r="B551" t="s">
         <v>1869</v>
-      </c>
-      <c r="D551" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E551" t="s">
-        <v>1871</v>
-      </c>
-      <c r="F551" t="s">
-        <v>26</v>
-      </c>
-      <c r="G551" t="s">
-        <v>20</v>
-      </c>
-      <c r="H551" t="s">
-        <v>1872</v>
       </c>
     </row>
   </sheetData>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D52A2DA-6000-4F5C-B373-F32B83D7DD94}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCB9E5DA-33D5-44BB-9135-EA1108299370}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
   </bookViews>
   <sheets>
     <sheet name="Nr1_Jan8" sheetId="1" r:id="rId1"/>
+    <sheet name="Nr2Jan16" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="1948">
   <si>
     <t>Imprint</t>
   </si>
@@ -5646,6 +5647,240 @@
   </si>
   <si>
     <t>Namnkorr (Journal of Prescribing Practice)</t>
+  </si>
+  <si>
+    <t>ändring</t>
+  </si>
+  <si>
+    <t>IOS Press</t>
+  </si>
+  <si>
+    <t>1875-8452</t>
+  </si>
+  <si>
+    <t>0921-7126</t>
+  </si>
+  <si>
+    <t>AI Communications</t>
+  </si>
+  <si>
+    <t>http://content.iospress.com/journals/ai-communications</t>
+  </si>
+  <si>
+    <t>1875-8568</t>
+  </si>
+  <si>
+    <t>0972-9860</t>
+  </si>
+  <si>
+    <t>Asian Journal of Water, Environment and Pollution</t>
+  </si>
+  <si>
+    <t>http://content.iospress.com/journals/asian-journal-of-water-environment-and-pollution</t>
+  </si>
+  <si>
+    <t>2212-8808</t>
+  </si>
+  <si>
+    <t>2212-8794</t>
+  </si>
+  <si>
+    <t>Biomedical Spectroscopy and Imaging</t>
+  </si>
+  <si>
+    <t>http://content.iospress.com/journals/biomedical-spectroscopy-and-imaging</t>
+  </si>
+  <si>
+    <t>2213-6312</t>
+  </si>
+  <si>
+    <t>2213-6304</t>
+  </si>
+  <si>
+    <t>Brain Plasticity</t>
+  </si>
+  <si>
+    <t>http://content.iospress.com/journals/brain-plasticity</t>
+  </si>
+  <si>
+    <t>1822-8844</t>
+  </si>
+  <si>
+    <t>0868-4952</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>http://content.iospress.com/journals/informatica</t>
+  </si>
+  <si>
+    <t>2542-4823</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>JAD Reports</t>
+  </si>
+  <si>
+    <t>http://content.iospress.com/journals/jad-reports/Preprint/Preprint</t>
+  </si>
+  <si>
+    <t>2395-7697</t>
+  </si>
+  <si>
+    <t>2395-7611</t>
+  </si>
+  <si>
+    <t>Journal of Climate Change</t>
+  </si>
+  <si>
+    <t>http://content.iospress.com/journals/journal-of-climate-change</t>
+  </si>
+  <si>
+    <t>2589-9961</t>
+  </si>
+  <si>
+    <t>2589-9953</t>
+  </si>
+  <si>
+    <t>Journal of Future Robot Life</t>
+  </si>
+  <si>
+    <t>https://www.iospress.nl/journal/journal-of-future-robot-life/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2468-3892 </t>
+  </si>
+  <si>
+    <t>2468-3884</t>
+  </si>
+  <si>
+    <t>Journal of Medical Psychology</t>
+  </si>
+  <si>
+    <t>https://content.iospress.com/journals/journal-of-medical-psychology/1/1</t>
+  </si>
+  <si>
+    <t>0975-7562</t>
+  </si>
+  <si>
+    <t>0975-7554</t>
+  </si>
+  <si>
+    <t>Journal of Resources, Energy and Development</t>
+  </si>
+  <si>
+    <t>http://content.iospress.com/journals/journal-of-resources-energy-and-development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1574-0617 </t>
+  </si>
+  <si>
+    <t>Journal on Satisfiability, Boolean Modelling and Computation</t>
+  </si>
+  <si>
+    <t>https://content.iospress.com/journals/journal-on-satisfiability-boolean-modeling-and-computation/12/1</t>
+  </si>
+  <si>
+    <t>0975-7597</t>
+  </si>
+  <si>
+    <t>0974-567X</t>
+  </si>
+  <si>
+    <t>World Digital Libraries</t>
+  </si>
+  <si>
+    <t>http://content.iospress.com/journals/world-digital-libraries-an-international-journal</t>
+  </si>
+  <si>
+    <t>2772-5391</t>
+  </si>
+  <si>
+    <t>2772-5383</t>
+  </si>
+  <si>
+    <t>Advances in Communication and Swallowing</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/CSW</t>
+  </si>
+  <si>
+    <t>2949-799X</t>
+  </si>
+  <si>
+    <t>FAIR Connect</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/fco</t>
+  </si>
+  <si>
+    <t>Journal of Alzheimer's Disease Reports</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/alr</t>
+  </si>
+  <si>
+    <t>2772-3577</t>
+  </si>
+  <si>
+    <t>2772-3585</t>
+  </si>
+  <si>
+    <t>Journal of Smart Cities and Society</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/SMC</t>
+  </si>
+  <si>
+    <t>2949-8732</t>
+  </si>
+  <si>
+    <t>Neurosymbolic Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>https://neurosymbolic-ai-journal.com/content/about-neurosymbolic-artificial-intelligence</t>
+  </si>
+  <si>
+    <t>3050-4554</t>
+  </si>
+  <si>
+    <t>3050-4546</t>
+  </si>
+  <si>
+    <t>The European Journal on Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/EAI</t>
+  </si>
+  <si>
+    <t>1010-4283</t>
+  </si>
+  <si>
+    <t>1423-0380</t>
+  </si>
+  <si>
+    <t>Tumor Biology</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/tub</t>
+  </si>
+  <si>
+    <t>RSC</t>
+  </si>
+  <si>
+    <t>Chemical Science</t>
+  </si>
+  <si>
+    <t>Borttagen (diamond)</t>
+  </si>
+  <si>
+    <t>Dessutom är alla länkar för IOS ändrade, till SAGE's domän</t>
+  </si>
+  <si>
+    <t>Alla Karger-länkar är också ändrade (till https)</t>
   </si>
 </sst>
 </file>
@@ -5712,6 +5947,23 @@
     <tableColumn id="6" xr3:uid="{ED8D67B2-9A55-4214-93AA-4332B50CAE85}" name="Publishing model"/>
     <tableColumn id="7" xr3:uid="{9179E76F-90DB-433F-B23C-CEDD88E9627D}" name="CC License options"/>
     <tableColumn id="8" xr3:uid="{0353EBEF-ECFC-4FD7-B537-DB938C511D6C}" name="Ändring"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4792AC32-5699-4F97-8FAD-F6B3C305BCE7}" name="Table2" displayName="Table2" ref="A1:H21" totalsRowShown="0">
+  <autoFilter ref="A1:H21" xr:uid="{4792AC32-5699-4F97-8FAD-F6B3C305BCE7}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{09F05E5B-B9BD-4E14-9D62-1AE5E2F00B66}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{EA6CFA79-CEAC-425B-B612-64268AB8476B}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{6021374D-F72E-4E09-AD42-8E05F0EFF74E}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{EA6BB4AB-B63A-4E20-B562-5AC66ED0CDBB}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{B6E52995-66F8-44D1-BB37-E7FD2292D46C}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{294D755D-0C5D-4E1E-A573-F890EDBDC497}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{5584754A-2FD4-4019-831C-C523A33C723F}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{7831768B-1031-48EF-9301-3F1667FFF1A8}" name="ändring"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6036,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02620B0-8DF4-4F28-8717-5424F4A868FE}">
   <dimension ref="A1:H550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19314,4 +19566,561 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE0BCCC-3CC4-4163-A79C-06EC3FA0BA03}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCB9E5DA-33D5-44BB-9135-EA1108299370}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B472DBCC-8B6A-4FBA-8088-D5C40A68EFAE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
   </bookViews>
   <sheets>
     <sheet name="Nr1_Jan8" sheetId="1" r:id="rId1"/>
     <sheet name="Nr2Jan16" sheetId="2" r:id="rId2"/>
+    <sheet name="Nr2bJan22" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1953">
   <si>
     <t>Imprint</t>
   </si>
@@ -5881,6 +5882,21 @@
   </si>
   <si>
     <t>Alla Karger-länkar är också ändrade (till https)</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>2590-3322</t>
+  </si>
+  <si>
+    <t>One Earth</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/25903322</t>
+  </si>
+  <si>
+    <t>Flyttas till Cell Press från Elsevier, låg fel tidigare</t>
   </si>
 </sst>
 </file>
@@ -20123,4 +20139,42 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1BBBCE-C2C0-4B4D-B8E7-72C05C6DA10B}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B472DBCC-8B6A-4FBA-8088-D5C40A68EFAE}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3494DD77-2CD2-419E-B131-2566BCAFEDF9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
   </bookViews>
   <sheets>
     <sheet name="Nr1_Jan8" sheetId="1" r:id="rId1"/>
     <sheet name="Nr2Jan16" sheetId="2" r:id="rId2"/>
     <sheet name="Nr2bJan22" sheetId="3" r:id="rId3"/>
+    <sheet name="Nr3Feb14" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="2007">
   <si>
     <t>Imprint</t>
   </si>
@@ -5897,6 +5898,168 @@
   </si>
   <si>
     <t>Flyttas till Cell Press från Elsevier, låg fel tidigare</t>
+  </si>
+  <si>
+    <t>2090-0430</t>
+  </si>
+  <si>
+    <t>Autoimmune Diseases</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/2091</t>
+  </si>
+  <si>
+    <t>1687-8566</t>
+  </si>
+  <si>
+    <t>Journal of Cancer Epidemiology</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/3061</t>
+  </si>
+  <si>
+    <t>2475-0387</t>
+  </si>
+  <si>
+    <t>Journal of Theoretical Social Psychology</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/jtsp</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/2690442x</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/19425120</t>
+  </si>
+  <si>
+    <t>Borttagen, Ceased Jan 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borttagen, Flyttad till OUP </t>
+  </si>
+  <si>
+    <t>2632-7376</t>
+  </si>
+  <si>
+    <t>Cerebral Cortex Communications</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/cercorcomms</t>
+  </si>
+  <si>
+    <t>Borttagen, ceased</t>
+  </si>
+  <si>
+    <t>2753-2410</t>
+  </si>
+  <si>
+    <t>Oxford Open Infrastructure and Health</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ooih</t>
+  </si>
+  <si>
+    <t>2219-7117</t>
+  </si>
+  <si>
+    <t>Jerusalem Review of Legal Studies</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jrls</t>
+  </si>
+  <si>
+    <t>Borttagen, ej inkluderad</t>
+  </si>
+  <si>
+    <t>2288-5048</t>
+  </si>
+  <si>
+    <t>Journal of Computational Design and Engineering</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jcde</t>
+  </si>
+  <si>
+    <t>1471-6917</t>
+  </si>
+  <si>
+    <t>Journal of Islamic Studies</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jis</t>
+  </si>
+  <si>
+    <t>1086-3273</t>
+  </si>
+  <si>
+    <t>Modern Judaism - A Journal of Jewish Ideas and Experience</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/mj</t>
+  </si>
+  <si>
+    <t>2977-0548</t>
+  </si>
+  <si>
+    <t>AJE Advances: Research in Epidemiology</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ajeadvances</t>
+  </si>
+  <si>
+    <t>3049-7442</t>
+  </si>
+  <si>
+    <t>Environmental Endocrinology</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/enendo</t>
+  </si>
+  <si>
+    <t>3033-3563</t>
+  </si>
+  <si>
+    <t>Obesity and Endocrinology</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/obendo</t>
+  </si>
+  <si>
+    <t>2976-8586</t>
+  </si>
+  <si>
+    <t>RSS Data Science</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/rssdat</t>
+  </si>
+  <si>
+    <t>1471-681X</t>
+  </si>
+  <si>
+    <t>Year's Work In Critical And Cultural Theory</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ywcct</t>
+  </si>
+  <si>
+    <t>1471-6801</t>
+  </si>
+  <si>
+    <t>Year's Work In English Studies</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ywes</t>
+  </si>
+  <si>
+    <t>3049-575X</t>
+  </si>
+  <si>
+    <t>BMJ Digital Health &amp; AI</t>
+  </si>
+  <si>
+    <t>https://bmjdigitalhealth.bmj.com/</t>
   </si>
 </sst>
 </file>
@@ -19588,8 +19751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE0BCCC-3CC4-4163-A79C-06EC3FA0BA03}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20177,4 +20340,508 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14F77C-995C-4486-A76D-3C34B07FF15E}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>386</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>386</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>386</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E14" t="s">
+        <v>415</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>478</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>478</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>478</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>386</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>386</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3494DD77-2CD2-419E-B131-2566BCAFEDF9}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57C21D5C-16A3-46E4-AA22-D4A701358650}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
   </bookViews>
   <sheets>
     <sheet name="Nr1_Jan8" sheetId="1" r:id="rId1"/>
-    <sheet name="Nr2Jan16" sheetId="2" r:id="rId2"/>
-    <sheet name="Nr2bJan22" sheetId="3" r:id="rId3"/>
-    <sheet name="Nr3Feb14" sheetId="4" r:id="rId4"/>
+    <sheet name="Nr2_Jan16" sheetId="2" r:id="rId2"/>
+    <sheet name="Nr2b_Jan22" sheetId="3" r:id="rId3"/>
+    <sheet name="Nr3_Feb14" sheetId="4" r:id="rId4"/>
+    <sheet name="Nr4_feb19" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="2007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5119" uniqueCount="2367">
   <si>
     <t>Imprint</t>
   </si>
@@ -6060,6 +6061,1086 @@
   </si>
   <si>
     <t>https://bmjdigitalhealth.bmj.com/</t>
+  </si>
+  <si>
+    <t>Emerald Publishing</t>
+  </si>
+  <si>
+    <t>2754-6721</t>
+  </si>
+  <si>
+    <t>0973-211X</t>
+  </si>
+  <si>
+    <t>Business Analyst Journal</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/0973-211X</t>
+  </si>
+  <si>
+    <t>2210-8327</t>
+  </si>
+  <si>
+    <t>2634-1964</t>
+  </si>
+  <si>
+    <t>Applied Computing and Informatics</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2634-1964</t>
+  </si>
+  <si>
+    <t>2632-7627</t>
+  </si>
+  <si>
+    <t>Applied Economic Analysis</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2632-7627</t>
+  </si>
+  <si>
+    <t>2536-0051</t>
+  </si>
+  <si>
+    <t>1985-9899</t>
+  </si>
+  <si>
+    <t>Arab Gulf Journal of Scientific Research</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1985-9899</t>
+  </si>
+  <si>
+    <t>2588-9214</t>
+  </si>
+  <si>
+    <t>1319-5166</t>
+  </si>
+  <si>
+    <t>Arab Journal of Mathematical Sciences</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1319-5166</t>
+  </si>
+  <si>
+    <t>2398-7812</t>
+  </si>
+  <si>
+    <t>2071-1395</t>
+  </si>
+  <si>
+    <t>Asia Pacific Journal of Innovation and Entrepreneurship</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2071-1395</t>
+  </si>
+  <si>
+    <t>2414-6994</t>
+  </si>
+  <si>
+    <t>1858-3431</t>
+  </si>
+  <si>
+    <t>Asian Association of Open Universities Journal</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1858-3431</t>
+  </si>
+  <si>
+    <t>2443-4175</t>
+  </si>
+  <si>
+    <t>Asian Journal of Accounting Research</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2443-4175</t>
+  </si>
+  <si>
+    <t>2633-7991</t>
+  </si>
+  <si>
+    <t>2615-9821</t>
+  </si>
+  <si>
+    <t>Asian Journal of Economics and Banking</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2588-1396</t>
+  </si>
+  <si>
+    <t>2658-2430</t>
+  </si>
+  <si>
+    <t>2658-0845</t>
+  </si>
+  <si>
+    <t>Central European Management Journal</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2658-0845</t>
+  </si>
+  <si>
+    <t>2307-3055</t>
+  </si>
+  <si>
+    <t>1029-807X</t>
+  </si>
+  <si>
+    <t>China Accounting and Finance Review</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1029-807X</t>
+  </si>
+  <si>
+    <t>2516-1652</t>
+  </si>
+  <si>
+    <t>China Political Economy</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2516-1652</t>
+  </si>
+  <si>
+    <t>2755-077X</t>
+  </si>
+  <si>
+    <t>2755-0761</t>
+  </si>
+  <si>
+    <t>Digital Transformation and Society</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2755-0761</t>
+  </si>
+  <si>
+    <t>2358-2820</t>
+  </si>
+  <si>
+    <t>1517-7580</t>
+  </si>
+  <si>
+    <t>EconomiA</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1517-7580</t>
+  </si>
+  <si>
+    <t>2444-8494</t>
+  </si>
+  <si>
+    <t>2444-8451</t>
+  </si>
+  <si>
+    <t>European Journal of Management and Business Economics</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2444-8451</t>
+  </si>
+  <si>
+    <t>2635-2648</t>
+  </si>
+  <si>
+    <t>2183-4172</t>
+  </si>
+  <si>
+    <t>European Journal of Management Studies</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2635-2648</t>
+  </si>
+  <si>
+    <t>2631-3030</t>
+  </si>
+  <si>
+    <t>Forestry Economics Review</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2631-3030</t>
+  </si>
+  <si>
+    <t>2634-2502</t>
+  </si>
+  <si>
+    <t>2634-2499</t>
+  </si>
+  <si>
+    <t>Frontiers in Engineering and Built Environment</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2634-2502</t>
+  </si>
+  <si>
+    <t>2635-0181</t>
+  </si>
+  <si>
+    <t>2635-0173</t>
+  </si>
+  <si>
+    <t>Fulbright Review of Economics and Policy</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2635-0181</t>
+  </si>
+  <si>
+    <t>2514-5789</t>
+  </si>
+  <si>
+    <t>Higher Education Evaluation and Development</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2514-5789</t>
+  </si>
+  <si>
+    <t>2754-0146</t>
+  </si>
+  <si>
+    <t>2754-0138</t>
+  </si>
+  <si>
+    <t>IIM Ranchi Journal of Management Studies</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2754-0146</t>
+  </si>
+  <si>
+    <t>2753-4022</t>
+  </si>
+  <si>
+    <t>IIMBG Journal of Sustainable Business and Innovation</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2753-4022</t>
+  </si>
+  <si>
+    <t>2515-8961</t>
+  </si>
+  <si>
+    <t>Innovation &amp; Management Review</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2515-8961</t>
+  </si>
+  <si>
+    <t>2516-8142</t>
+  </si>
+  <si>
+    <t>International Hospitality Review</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2516-8142</t>
+  </si>
+  <si>
+    <t>2690-6104</t>
+  </si>
+  <si>
+    <t>2690-6090</t>
+  </si>
+  <si>
+    <t>International Journal of Industrial Engineering and Operations Management</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2690-6090</t>
+  </si>
+  <si>
+    <t>2632-122X</t>
+  </si>
+  <si>
+    <t>2586-3932</t>
+  </si>
+  <si>
+    <t>International Trade, Politics and Development</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2586-3932</t>
+  </si>
+  <si>
+    <t>2398-8819</t>
+  </si>
+  <si>
+    <t>0791-8437</t>
+  </si>
+  <si>
+    <t>Irish Journal of Occupational Therapy</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2398-8819</t>
+  </si>
+  <si>
+    <t>2411-3395</t>
+  </si>
+  <si>
+    <t>1319-1616</t>
+  </si>
+  <si>
+    <t>Islamic Economic Studies</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1319-1616</t>
+  </si>
+  <si>
+    <t>2515-964X</t>
+  </si>
+  <si>
+    <t>Journal of Asian Business and Economic Studies</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2515-964X</t>
+  </si>
+  <si>
+    <t>2769-4062</t>
+  </si>
+  <si>
+    <t>2769-4054</t>
+  </si>
+  <si>
+    <t>Journal of Blood Service Economics</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2769-4054</t>
+  </si>
+  <si>
+    <t>2635-1692</t>
+  </si>
+  <si>
+    <t>2635-1374</t>
+  </si>
+  <si>
+    <t>Journal of Business and Socio-economic Development</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2635-1692</t>
+  </si>
+  <si>
+    <t>2514-4774</t>
+  </si>
+  <si>
+    <t>Journal of Capital Markets Studies</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2514-4774</t>
+  </si>
+  <si>
+    <t>2399-6439</t>
+  </si>
+  <si>
+    <t>Journal of Defense Analytics and Logistics</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2399-6439</t>
+  </si>
+  <si>
+    <t>2713-6647</t>
+  </si>
+  <si>
+    <t>1229-988X</t>
+  </si>
+  <si>
+    <t>Journal of Derivatives and Quantitative Studies</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1229-988X</t>
+  </si>
+  <si>
+    <t>2632-5330</t>
+  </si>
+  <si>
+    <t>1859-0020</t>
+  </si>
+  <si>
+    <t>Journal of Economics and Development</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2632-5330</t>
+  </si>
+  <si>
+    <t>2218-0648</t>
+  </si>
+  <si>
+    <t>2077-1886</t>
+  </si>
+  <si>
+    <t>Journal of Economics Finance and Administrative Science</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2218-0648</t>
+  </si>
+  <si>
+    <t>2754-4222</t>
+  </si>
+  <si>
+    <t>2754-4214</t>
+  </si>
+  <si>
+    <t>Journal of Electronic Business &amp; Digital Economics</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2754-4214</t>
+  </si>
+  <si>
+    <t>2633-7444</t>
+  </si>
+  <si>
+    <t>2633-7436</t>
+  </si>
+  <si>
+    <t>Journal of Ethics, Entrepreneurship and Technology</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2633-7436</t>
+  </si>
+  <si>
+    <t>2042-6755</t>
+  </si>
+  <si>
+    <t>2042-6747</t>
+  </si>
+  <si>
+    <t>Journal of Humanitarian Logistics and Supply Chain Management</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2042-6747</t>
+  </si>
+  <si>
+    <t>2632-279X</t>
+  </si>
+  <si>
+    <t>Journal of Humanities and Applied Social Sciences</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2632-279X</t>
+  </si>
+  <si>
+    <t>2633-660X</t>
+  </si>
+  <si>
+    <t>2633-6596</t>
+  </si>
+  <si>
+    <t>Journal of Intelligent Manufacturing and Special Equipment</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2633-6596</t>
+  </si>
+  <si>
+    <t>2755-0303</t>
+  </si>
+  <si>
+    <t>2755-029X</t>
+  </si>
+  <si>
+    <t>Journal of International Cooperation in Education</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2755-029X</t>
+  </si>
+  <si>
+    <t>2508-7592</t>
+  </si>
+  <si>
+    <t>1738-2122</t>
+  </si>
+  <si>
+    <t>Journal of International Logistics and Trade</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1738-2122</t>
+  </si>
+  <si>
+    <t>2752-6364</t>
+  </si>
+  <si>
+    <t>2752-6356</t>
+  </si>
+  <si>
+    <t>Journal of Internet and Digital Economics</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2752-6364</t>
+  </si>
+  <si>
+    <t>2634-260X</t>
+  </si>
+  <si>
+    <t>2634-2596</t>
+  </si>
+  <si>
+    <t>Journal of Money and Business</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2634-260X</t>
+  </si>
+  <si>
+    <t>1947-1017</t>
+  </si>
+  <si>
+    <t>2397-7604</t>
+  </si>
+  <si>
+    <t>Journal of Research in Innovative Teaching &amp; Learning</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2397-7604</t>
+  </si>
+  <si>
+    <t>2055-592X</t>
+  </si>
+  <si>
+    <t>2055-5911</t>
+  </si>
+  <si>
+    <t>Journal of Tourism Futures</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2055-5911</t>
+  </si>
+  <si>
+    <t>2755-3957</t>
+  </si>
+  <si>
+    <t>2815-5793</t>
+  </si>
+  <si>
+    <t>Journal of Trade Science</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2815-5793</t>
+  </si>
+  <si>
+    <t>2205-149X</t>
+  </si>
+  <si>
+    <t>2205-2062</t>
+  </si>
+  <si>
+    <t>Journal of Work-Applied Management</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2205-2062</t>
+  </si>
+  <si>
+    <t>0974-1852</t>
+  </si>
+  <si>
+    <t>0972-8031</t>
+  </si>
+  <si>
+    <t>LBS Journal of Management &amp; Research</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/0972-8031</t>
+  </si>
+  <si>
+    <t>2077-5504</t>
+  </si>
+  <si>
+    <t>Learning and teaching in higher education: Gulf perspectives</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2077-5504</t>
+  </si>
+  <si>
+    <t>2752-8359</t>
+  </si>
+  <si>
+    <t>2279-0187</t>
+  </si>
+  <si>
+    <t>Management Matters</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2279-0187</t>
+  </si>
+  <si>
+    <t>2516-158X</t>
+  </si>
+  <si>
+    <t>Marine Economics and Management</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2516-158X</t>
+  </si>
+  <si>
+    <t>2397-3765</t>
+  </si>
+  <si>
+    <t>2397-3757</t>
+  </si>
+  <si>
+    <t>Maritime Business Review</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2397-3757</t>
+  </si>
+  <si>
+    <t>2631-3871</t>
+  </si>
+  <si>
+    <t>Modern Supply Chain Research and Applications</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2631-3871</t>
+  </si>
+  <si>
+    <t>2574-8904</t>
+  </si>
+  <si>
+    <t>1550-333X</t>
+  </si>
+  <si>
+    <t>New England Journal of Entrepreneurship</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2574-8904</t>
+  </si>
+  <si>
+    <t>1541-6518</t>
+  </si>
+  <si>
+    <t>Organization Management Journal</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1541-6518</t>
+  </si>
+  <si>
+    <t>2635-0289</t>
+  </si>
+  <si>
+    <t>2635-0270</t>
+  </si>
+  <si>
+    <t>Organizational Cybersecurity Journal: Practice, Process &amp; People</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2635-0289</t>
+  </si>
+  <si>
+    <t>2833-2059</t>
+  </si>
+  <si>
+    <t>2833-2040</t>
+  </si>
+  <si>
+    <t>PDS Partners: Bridging Research to Practice</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2833-2040</t>
+  </si>
+  <si>
+    <t>2398-4007</t>
+  </si>
+  <si>
+    <t>2399-1747</t>
+  </si>
+  <si>
+    <t>PSU Research Review: An International Journal</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2398-4007</t>
+  </si>
+  <si>
+    <t>2517-679X</t>
+  </si>
+  <si>
+    <t>Public Administration and Policy</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2517-679X</t>
+  </si>
+  <si>
+    <t>2755-0915</t>
+  </si>
+  <si>
+    <t>2755-0907</t>
+  </si>
+  <si>
+    <t>Railway Sciences</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2755-0907</t>
+  </si>
+  <si>
+    <t>2633-0091</t>
+  </si>
+  <si>
+    <t>0972-9968</t>
+  </si>
+  <si>
+    <t>Rajagiri Management Journal</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2633-0091</t>
+  </si>
+  <si>
+    <t>2531-0488</t>
+  </si>
+  <si>
+    <t>RAUSP Management Journal</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2531-0488</t>
+  </si>
+  <si>
+    <t>2177-8736</t>
+  </si>
+  <si>
+    <t>1809-2276</t>
+  </si>
+  <si>
+    <t>Revista de Gestão</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2177-8736</t>
+  </si>
+  <si>
+    <t>2634-2448</t>
+  </si>
+  <si>
+    <t>2634-243X</t>
+  </si>
+  <si>
+    <t>Saudi Journal of Language Studies</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2634-2448</t>
+  </si>
+  <si>
+    <t>2833-2075</t>
+  </si>
+  <si>
+    <t>1935-7125</t>
+  </si>
+  <si>
+    <t>School University Partnerships</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1935-7125</t>
+  </si>
+  <si>
+    <t>2632-0495</t>
+  </si>
+  <si>
+    <t>2632-0487</t>
+  </si>
+  <si>
+    <t>Smart and Resilient Transportation</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2632-0487</t>
+  </si>
+  <si>
+    <t>2738-2486</t>
+  </si>
+  <si>
+    <t>2719-2377</t>
+  </si>
+  <si>
+    <t>South Asian Journal of Marketing</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2719-2377</t>
+  </si>
+  <si>
+    <t>2948-0426</t>
+  </si>
+  <si>
+    <t>1819-5091</t>
+  </si>
+  <si>
+    <t>Southeast Asia: A Multidisciplinary Journal</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1819-5091</t>
+  </si>
+  <si>
+    <t>2444-9709</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2444-9695 </t>
+  </si>
+  <si>
+    <t>Spanish Journal of Marketing - ESIC</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2444-9709</t>
+  </si>
+  <si>
+    <t>2633-1233</t>
+  </si>
+  <si>
+    <t>2633-1225</t>
+  </si>
+  <si>
+    <t>Tourism Critiques</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2633-1233</t>
+  </si>
+  <si>
+    <t>2633-9439</t>
+  </si>
+  <si>
+    <t>0973-1954</t>
+  </si>
+  <si>
+    <t>VILAKSHAN - XIMB Journal of Management</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/0973-1954</t>
+  </si>
+  <si>
+    <t>2398-7294</t>
+  </si>
+  <si>
+    <t>International Journal of Crowd Science</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2398-7294</t>
+  </si>
+  <si>
+    <t>Borttagen (flyttad)</t>
+  </si>
+  <si>
+    <t>https://www.emeraldgrouppublishing.com/journal/mij</t>
+  </si>
+  <si>
+    <t>2042-597X</t>
+  </si>
+  <si>
+    <t>2042-5961</t>
+  </si>
+  <si>
+    <t>World Journal of Entrepreneurship, Management and Sustainable Development</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2042-5961</t>
+  </si>
+  <si>
+    <t>2042-5953</t>
+  </si>
+  <si>
+    <t>2042-5945</t>
+  </si>
+  <si>
+    <t>World Journal of Science, Technology and Sustainable Development</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2042-5945</t>
+  </si>
+  <si>
+    <t>2050-8832</t>
+  </si>
+  <si>
+    <t>2050-8824</t>
+  </si>
+  <si>
+    <t>Journal of Intellectual Disabilities and Offending Behaviour</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2050-8824</t>
+  </si>
+  <si>
+    <t>2399-9802</t>
+  </si>
+  <si>
+    <t>Journal of Intelligent and Connected Vehicles</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2399-9802</t>
+  </si>
+  <si>
+    <t>2042-8359</t>
+  </si>
+  <si>
+    <t>1745-9265</t>
+  </si>
+  <si>
+    <t>Drugs and Alcohol Today</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1745-9265</t>
+  </si>
+  <si>
+    <t>Borttagen (namnbyte)</t>
+  </si>
+  <si>
+    <t>1758-4078</t>
+  </si>
+  <si>
+    <t>0144-5154</t>
+  </si>
+  <si>
+    <t>Assembly Automation</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/0144-5154</t>
+  </si>
+  <si>
+    <t>1750-6190</t>
+  </si>
+  <si>
+    <t>1750-6182</t>
+  </si>
+  <si>
+    <t>International Journal of Culture, Tourism and Hospitality Research</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1750-6182</t>
+  </si>
+  <si>
+    <t>1744-9219</t>
+  </si>
+  <si>
+    <t>1744-9200</t>
+  </si>
+  <si>
+    <t>International Journal of Prisoner Health</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1744-9200</t>
+  </si>
+  <si>
+    <t>2633-4070</t>
+  </si>
+  <si>
+    <t>2633-4062</t>
+  </si>
+  <si>
+    <t>Ecofeminism and Climate Change</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2633-4070</t>
+  </si>
+  <si>
+    <t>Borttagen (upphört)</t>
+  </si>
+  <si>
+    <t>2516-4392</t>
+  </si>
+  <si>
+    <t>International Journal of Disruptive Innovation in Government</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2516-4392</t>
+  </si>
+  <si>
+    <t>2516-4384</t>
+  </si>
+  <si>
+    <t>International Journal of Excellence in Government</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2516-4384</t>
+  </si>
+  <si>
+    <t>2226-4639</t>
+  </si>
+  <si>
+    <t>1851-6599</t>
+  </si>
+  <si>
+    <t>Journal of Centrum Cathedra</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1851-6599</t>
+  </si>
+  <si>
+    <t>2586-940X</t>
+  </si>
+  <si>
+    <t>0857-4421</t>
+  </si>
+  <si>
+    <t>Journal of Health Research</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/0857-4421</t>
+  </si>
+  <si>
+    <t>1758-7476</t>
+  </si>
+  <si>
+    <t>1528-5812</t>
+  </si>
+  <si>
+    <t>Journal of Investment Compliance</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/1528-5812</t>
+  </si>
+  <si>
+    <t>2254-0644</t>
+  </si>
+  <si>
+    <t>1885-2564</t>
+  </si>
+  <si>
+    <t>Journal of Tourism Analysis</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2254-0644</t>
+  </si>
+  <si>
+    <t>2056-5615</t>
+  </si>
+  <si>
+    <t>2056-5607</t>
+  </si>
+  <si>
+    <t>International Journal of Tourism Cities</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2056-5607</t>
+  </si>
+  <si>
+    <t>2631-357X</t>
+  </si>
+  <si>
+    <t>Journal of Industry - University Collaboration</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2631-357X</t>
+  </si>
+  <si>
+    <t>2289-4365</t>
+  </si>
+  <si>
+    <t>0128-1976</t>
+  </si>
+  <si>
+    <t>ISRA International Journal of Islamic Finance</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2289-4365</t>
+  </si>
+  <si>
+    <t>2977-0262</t>
+  </si>
+  <si>
+    <t>2977-0254</t>
+  </si>
+  <si>
+    <t>International Journal of Prison Health</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2977-0254</t>
+  </si>
+  <si>
+    <t>2976-8756</t>
+  </si>
+  <si>
+    <t>Mental Health and Digital Technologies</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2976-8756</t>
+  </si>
+  <si>
+    <t>2996-6078</t>
+  </si>
+  <si>
+    <t>SAM Advanced Management Journal</t>
+  </si>
+  <si>
+    <t>https://www.emerald.com/insight/publication/issn/2996-6078</t>
   </si>
 </sst>
 </file>
@@ -6143,6 +7224,23 @@
     <tableColumn id="6" xr3:uid="{294D755D-0C5D-4E1E-A573-F890EDBDC497}" name="Publishing model"/>
     <tableColumn id="7" xr3:uid="{5584754A-2FD4-4019-831C-C523A33C723F}" name="CC License options"/>
     <tableColumn id="8" xr3:uid="{7831768B-1031-48EF-9301-3F1667FFF1A8}" name="ändring"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BD679D4B-A9A1-4B17-A916-331EC8777933}" name="Table3" displayName="Table3" ref="A1:H97" totalsRowShown="0">
+  <autoFilter ref="A1:H97" xr:uid="{BD679D4B-A9A1-4B17-A916-331EC8777933}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6919F841-8877-438E-9A0A-9B5E4E9ED482}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{16C26FF3-AAC0-4ADF-B9EA-6D863D456CBE}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{D531579F-0833-45E7-806A-8D9B4792C8DB}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{E5D05245-0A01-42B1-A7E0-30FBAEFD2CA5}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{87298F72-C7E6-4E0E-B7E1-BC8193C7BCA6}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{3B6C7F97-857D-497B-BB3F-F95A574448DC}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{18B41136-E9D7-4C5C-A378-DA217892DB4D}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{A78364AE-C159-4EBE-9293-64AC934940E0}" name="ändring"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20309,7 +21407,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20346,8 +21444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14F77C-995C-4486-A76D-3C34B07FF15E}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20844,4 +21942,2479 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A54F33-C38D-4ACB-AB54-914E83085D9E}">
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2132</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2219</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2242</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F67" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2257</v>
+      </c>
+      <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2284</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F83" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2328</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2332</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F88" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2337</v>
+      </c>
+      <c r="F89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2340</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2341</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F92" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F94" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2360</v>
+      </c>
+      <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57C21D5C-16A3-46E4-AA22-D4A701358650}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ECCB960-8D92-42C8-A4BE-FE0731F3C317}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
   </bookViews>
   <sheets>
     <sheet name="Nr1_Jan8" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Nr2b_Jan22" sheetId="3" r:id="rId3"/>
     <sheet name="Nr3_Feb14" sheetId="4" r:id="rId4"/>
     <sheet name="Nr4_feb19" sheetId="5" r:id="rId5"/>
+    <sheet name="Nr5_feb24" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5119" uniqueCount="2367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5194" uniqueCount="2400">
   <si>
     <t>Imprint</t>
   </si>
@@ -7141,6 +7142,105 @@
   </si>
   <si>
     <t>https://www.emerald.com/insight/publication/issn/2996-6078</t>
+  </si>
+  <si>
+    <t>IWA Publishing</t>
+  </si>
+  <si>
+    <t>1886-4996</t>
+  </si>
+  <si>
+    <t>1134-2196</t>
+  </si>
+  <si>
+    <t>Ingeniería del agua</t>
+  </si>
+  <si>
+    <t>https://iwaponline.com/ia</t>
+  </si>
+  <si>
+    <t>Portland Press</t>
+  </si>
+  <si>
+    <t>2059-6553</t>
+  </si>
+  <si>
+    <t>Neuronal Signaling</t>
+  </si>
+  <si>
+    <t>https://portlandpress.com/neuronalsignal</t>
+  </si>
+  <si>
+    <t>1932-9903</t>
+  </si>
+  <si>
+    <t>1499-9013</t>
+  </si>
+  <si>
+    <t>International Journal of Forensic Mental Health</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/FMH</t>
+  </si>
+  <si>
+    <t>2054-2704</t>
+  </si>
+  <si>
+    <t>JRSM Open</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/SHR</t>
+  </si>
+  <si>
+    <t>0360-6325</t>
+  </si>
+  <si>
+    <t>Lighting Design + Application</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/LDA</t>
+  </si>
+  <si>
+    <t>3049-7515</t>
+  </si>
+  <si>
+    <t>Urban Political Ecology</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/UPE</t>
+  </si>
+  <si>
+    <t>2515-1746</t>
+  </si>
+  <si>
+    <t>0265-539X</t>
+  </si>
+  <si>
+    <t>Community Dental Health</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/cdh</t>
+  </si>
+  <si>
+    <t>0974-0848</t>
+  </si>
+  <si>
+    <t>0971-0973</t>
+  </si>
+  <si>
+    <t>Journal of the Indian Academy of Forensic Medicine</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/IAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of the Royal Society of Medicine Cardiovascular Disease </t>
+  </si>
+  <si>
+    <t>http://journals.sagepub.com/home/cvd</t>
+  </si>
+  <si>
+    <t>Ny (tidigare RSM Open)</t>
   </si>
 </sst>
 </file>
@@ -7182,7 +7282,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -21948,8 +22079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A54F33-C38D-4ACB-AB54-914E83085D9E}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24417,4 +24548,277 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B101ACFB-60FB-403A-A0C6-CC0536E49115}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2397</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ECCB960-8D92-42C8-A4BE-FE0731F3C317}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{956CDF67-DD0A-4055-8CE6-FCFB79A37105}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5194" uniqueCount="2400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="2402">
   <si>
     <t>Imprint</t>
   </si>
@@ -7241,6 +7241,12 @@
   </si>
   <si>
     <t>Ny (tidigare RSM Open)</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ufmh</t>
+  </si>
+  <si>
+    <t>Borttagen (flyttad till SAGE)</t>
   </si>
 </sst>
 </file>
@@ -24552,10 +24558,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B101ACFB-60FB-403A-A0C6-CC0536E49115}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24807,6 +24813,32 @@
       </c>
       <c r="H10" t="s">
         <v>2399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2401</v>
       </c>
     </row>
   </sheetData>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{956CDF67-DD0A-4055-8CE6-FCFB79A37105}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{6196CB09-7FD6-4A1E-892B-3CCDA4F90521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5C0043-CDA9-404C-91D1-3339AEA492E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{86D68454-0DC7-4E8F-AFCE-283EDE566798}"/>
   </bookViews>
   <sheets>
     <sheet name="Nr1_Jan8" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Nr3_Feb14" sheetId="4" r:id="rId4"/>
     <sheet name="Nr4_feb19" sheetId="5" r:id="rId5"/>
     <sheet name="Nr5_feb24" sheetId="6" r:id="rId6"/>
+    <sheet name="Nr6_mars06" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="2402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="2478">
   <si>
     <t>Imprint</t>
   </si>
@@ -7247,14 +7248,250 @@
   </si>
   <si>
     <t>Borttagen (flyttad till SAGE)</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>2624-8611</t>
+  </si>
+  <si>
+    <t>Psych</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/psych</t>
+  </si>
+  <si>
+    <t>Borttagen (namnbyte till Psychology International)</t>
+  </si>
+  <si>
+    <t>2813-9844</t>
+  </si>
+  <si>
+    <t>Psychology International</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/psycholint</t>
+  </si>
+  <si>
+    <t>Ny (tidigare Psych)</t>
+  </si>
+  <si>
+    <t>2813-9054</t>
+  </si>
+  <si>
+    <t>Acta Microbiologica Hellenica</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/amh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ny </t>
+  </si>
+  <si>
+    <t>3042-4860</t>
+  </si>
+  <si>
+    <t>Cryo</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/cryo</t>
+  </si>
+  <si>
+    <t>3042-4011</t>
+  </si>
+  <si>
+    <t>Energy Storage and Applications</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/esa</t>
+  </si>
+  <si>
+    <t>3042-402X</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/geometry</t>
+  </si>
+  <si>
+    <t>2813-8740</t>
+  </si>
+  <si>
+    <t>Glacies</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/glacies</t>
+  </si>
+  <si>
+    <t>3042-4720</t>
+  </si>
+  <si>
+    <t>Intelligent Infrastructure and Construction</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/iic</t>
+  </si>
+  <si>
+    <t>2813-9542</t>
+  </si>
+  <si>
+    <t>International Journal of Topology</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/ijt</t>
+  </si>
+  <si>
+    <t>3042-4518</t>
+  </si>
+  <si>
+    <t>Journal of Dementia and Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/jdad</t>
+  </si>
+  <si>
+    <t>2001-6689</t>
+  </si>
+  <si>
+    <t>Journal of Market Access &amp; Health Policy</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/jmahp</t>
+  </si>
+  <si>
+    <t>2813-9380</t>
+  </si>
+  <si>
+    <t>Journal of Pharmaceutical and BioTech Industry</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/jpbi</t>
+  </si>
+  <si>
+    <t>2813-8759</t>
+  </si>
+  <si>
+    <t>Journal of the Oman Medical Association</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/joma</t>
+  </si>
+  <si>
+    <t>2813-9038</t>
+  </si>
+  <si>
+    <t>LabMed</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/labmed</t>
+  </si>
+  <si>
+    <t>2813-8856</t>
+  </si>
+  <si>
+    <t>Laboratories</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/laboratories</t>
+  </si>
+  <si>
+    <t>2813-7086</t>
+  </si>
+  <si>
+    <t>Lipidology</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/lipidology</t>
+  </si>
+  <si>
+    <t>3042-5042</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/metrics</t>
+  </si>
+  <si>
+    <t>2813-9372</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/pets</t>
+  </si>
+  <si>
+    <t>3042-4372</t>
+  </si>
+  <si>
+    <t>Populations</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/populations</t>
+  </si>
+  <si>
+    <t>3042-4658</t>
+  </si>
+  <si>
+    <t>Regional Science and Environmental Economics</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/rsee</t>
+  </si>
+  <si>
+    <t>2563-6499</t>
+  </si>
+  <si>
+    <t>Société Internationale d’Urologie Journal</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/siuj</t>
+  </si>
+  <si>
+    <t>2813-9909</t>
+  </si>
+  <si>
+    <t>Therapeutics</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/therapeutics</t>
+  </si>
+  <si>
+    <t>2813-9526</t>
+  </si>
+  <si>
+    <t>Time and Space</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/timespace</t>
+  </si>
+  <si>
+    <t>3042-4526</t>
+  </si>
+  <si>
+    <t>Wild</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/journal/wild</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -7282,8 +7519,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22085,7 +22323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A54F33-C38D-4ACB-AB54-914E83085D9E}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -24560,8 +24798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B101ACFB-60FB-403A-A0C6-CC0536E49115}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24853,4 +25091,597 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206E73A2-3539-42C9-B1E9-FF7517B872AC}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2444</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2450</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2468</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2474</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2476</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>